--- a/Filtered_By_Region/Region IX/Region IX_LMS.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_LMS.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD37"/>
+  <dimension ref="A1:BE37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +719,11 @@
           <t>Provision of Solar Panel</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -776,10 +782,10 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>44560</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>44735</v>
       </c>
       <c r="Q2" t="inlineStr">
@@ -822,7 +828,6 @@
           <t>2M CONSTRUCTION AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
@@ -891,18 +896,11 @@
       <c r="AU2" t="n">
         <v>1</v>
       </c>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="n">
         <v>1</v>
       </c>
@@ -964,10 +962,10 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>44534</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="3" t="n">
         <v>44685</v>
       </c>
       <c r="Q3" t="inlineStr">
@@ -980,19 +978,19 @@
           <t>06-0030-21</t>
         </is>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="S3" s="3" t="n">
         <v>44379</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>44386</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>44419</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>44429</v>
       </c>
       <c r="X3" t="inlineStr">
@@ -1000,7 +998,6 @@
           <t xml:space="preserve">Zamboanga 3VC CONSTRUCTION INCORPORATED </t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
@@ -1066,19 +1063,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
         <v>1</v>
       </c>
@@ -1140,10 +1129,10 @@
       <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="3" t="n">
         <v>44561</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>44561</v>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1186,7 +1175,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
@@ -1255,18 +1243,11 @@
       <c r="AU4" t="n">
         <v>1</v>
       </c>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
         <v>1</v>
       </c>
@@ -1303,7 +1284,6 @@
       <c r="G5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>2</v>
       </c>
@@ -1312,7 +1292,6 @@
           <t>CONSTRUCTION OFONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>10204006.09</v>
       </c>
@@ -1324,10 +1303,10 @@
       <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="3" t="n">
         <v>44561</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>44561</v>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1370,7 +1349,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
@@ -1439,18 +1417,11 @@
       <c r="AU5" t="n">
         <v>1</v>
       </c>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
         <v>1</v>
       </c>
@@ -1512,10 +1483,10 @@
       <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="3" t="n">
         <v>44561</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="3" t="n">
         <v>44622</v>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1528,19 +1499,19 @@
           <t xml:space="preserve">ZDS- 20- LMS-01 </t>
         </is>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="S6" s="3" t="n">
         <v>44385</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="3" t="n">
         <v>44393</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="3" t="n">
         <v>44405</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>44413</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>44419</v>
       </c>
       <c r="X6" t="inlineStr">
@@ -1548,7 +1519,6 @@
           <t>GENETIAN BUILDERS AND ENTERPRISES INC</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
@@ -1617,18 +1587,11 @@
       <c r="AU6" t="n">
         <v>1</v>
       </c>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
         <v>1</v>
       </c>
@@ -1725,10 +1688,10 @@
           <t>July 19, 2021</t>
         </is>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>44407</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>44434</v>
       </c>
       <c r="X7" t="inlineStr">
@@ -1809,18 +1772,11 @@
       <c r="AU7" t="n">
         <v>1</v>
       </c>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
         <v>1</v>
       </c>
@@ -1993,20 +1949,12 @@
       <c r="AS8" t="n">
         <v>0</v>
       </c>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="n">
         <v>1</v>
       </c>
@@ -2179,20 +2127,12 @@
       <c r="AS9" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
         <v>1</v>
       </c>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="n">
         <v>1</v>
       </c>
@@ -2229,7 +2169,6 @@
       <c r="G10" t="n">
         <v>2</v>
       </c>
-      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>2</v>
       </c>
@@ -2363,20 +2302,12 @@
       <c r="AS10" t="n">
         <v>0.34</v>
       </c>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="n">
         <v>0</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
       </c>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="n">
         <v>1</v>
       </c>
@@ -2549,20 +2480,12 @@
       <c r="AS11" t="n">
         <v>0</v>
       </c>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="n">
         <v>0</v>
       </c>
       <c r="AW11" t="n">
         <v>1</v>
       </c>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="n">
         <v>1</v>
       </c>
@@ -2624,7 +2547,7 @@
       <c r="N12" t="n">
         <v>0.25</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="3" t="n">
         <v>44802</v>
       </c>
       <c r="P12" t="inlineStr">
@@ -2658,7 +2581,7 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="3" t="n">
         <v>44712</v>
       </c>
       <c r="X12" t="inlineStr">
@@ -2731,20 +2654,12 @@
       <c r="AS12" t="n">
         <v>0</v>
       </c>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="n">
         <v>0</v>
       </c>
       <c r="AW12" t="n">
         <v>1</v>
       </c>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="n">
         <v>1</v>
       </c>
@@ -2917,20 +2832,12 @@
       <c r="AS13" t="n">
         <v>0</v>
       </c>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="n">
         <v>0</v>
       </c>
       <c r="AW13" t="n">
         <v>1</v>
       </c>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
         <v>1</v>
       </c>
@@ -2992,10 +2899,10 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="3" t="n">
         <v>45026</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>45026</v>
       </c>
       <c r="Q14" t="inlineStr">
@@ -3008,19 +2915,19 @@
           <t>CB-2022-039</t>
         </is>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="3" t="n">
         <v>44862</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>44872</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>44883</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>44896</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="X14" t="inlineStr">
@@ -3096,21 +3003,14 @@
       <c r="AT14" t="n">
         <v>7.23</v>
       </c>
-      <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="n">
         <v>1</v>
       </c>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="n">
         <v>1</v>
       </c>
@@ -3172,10 +3072,10 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="O15" s="3" t="n">
         <v>44926</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>44977</v>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3188,19 +3088,19 @@
           <t>LMS 2022-RIX-ZDN-01</t>
         </is>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="S15" s="3" t="n">
         <v>44655</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>44664</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>44676</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>44685</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="X15" t="inlineStr">
@@ -3276,21 +3176,14 @@
       <c r="AT15" t="n">
         <v>7.23</v>
       </c>
-      <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="n">
         <v>1</v>
       </c>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="n">
         <v>1</v>
       </c>
@@ -3352,10 +3245,10 @@
       <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="O16" s="2" t="n">
+      <c r="O16" s="3" t="n">
         <v>44921</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>44914</v>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3368,19 +3261,19 @@
           <t>ZDS-22-LMS-01</t>
         </is>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="S16" s="3" t="n">
         <v>45021</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>45030</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>45043</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="3" t="n">
         <v>45084</v>
       </c>
       <c r="X16" t="inlineStr">
@@ -3388,7 +3281,6 @@
           <t>GENETIAN BUILDERS AND ENTERPRISES INC</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
@@ -3454,19 +3346,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="n">
         <v>1</v>
       </c>
@@ -3528,10 +3412,10 @@
       <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="O17" s="2" t="n">
+      <c r="O17" s="3" t="n">
         <v>45590</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>45667</v>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3640,23 +3524,17 @@
       <c r="AT17" t="n">
         <v>2.24</v>
       </c>
-      <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="n">
         <v>0</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
       </c>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="n">
         <v>0</v>
       </c>
@@ -3718,10 +3596,10 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="O18" s="3" t="n">
         <v>45590</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>45667</v>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3734,19 +3612,19 @@
           <t>ZDS-23-LMS-01</t>
         </is>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="S18" s="3" t="n">
         <v>45029</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>45042</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>45054</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>45068</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="X18" t="inlineStr">
@@ -3754,7 +3632,6 @@
           <t>Genetian Builders &amp; Enterprises Inc.</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
@@ -3818,23 +3695,17 @@
       <c r="AT18" t="n">
         <v>2.24</v>
       </c>
-      <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="n">
         <v>0</v>
       </c>
       <c r="AW18" t="n">
         <v>1</v>
       </c>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="n">
         <v>0</v>
       </c>
@@ -3896,10 +3767,10 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="3" t="n">
         <v>45234</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>45415</v>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3912,19 +3783,19 @@
           <t>ZDS-23-LMS-02</t>
         </is>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="3" t="n">
         <v>45029</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>45042</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="3" t="n">
         <v>45054</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>45068</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="X19" t="inlineStr">
@@ -3932,7 +3803,6 @@
           <t>Genetian Builders &amp; Enterprises Inc.</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
@@ -3996,19 +3866,11 @@
       <c r="AT19" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="n">
         <v>0</v>
       </c>
@@ -4070,10 +3932,10 @@
       <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" s="2" t="n">
+      <c r="O20" s="3" t="n">
         <v>45590</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>45667</v>
       </c>
       <c r="Q20" t="inlineStr">
@@ -4086,19 +3948,19 @@
           <t>ZS-2023-LMS-01</t>
         </is>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="3" t="n">
         <v>45020</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>45033</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>45044</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>45100</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>45114</v>
       </c>
       <c r="X20" t="inlineStr">
@@ -4174,23 +4036,17 @@
       <c r="AT20" t="n">
         <v>2.24</v>
       </c>
-      <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="n">
         <v>0</v>
       </c>
       <c r="AW20" t="n">
         <v>1</v>
       </c>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="n">
         <v>0</v>
       </c>
@@ -4252,10 +4108,10 @@
       <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="O21" s="2" t="n">
+      <c r="O21" s="3" t="n">
         <v>45245</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>45290</v>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4268,19 +4124,19 @@
           <t>CB-2023-008</t>
         </is>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="3" t="n">
         <v>45021</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="3" t="n">
         <v>45030</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>45043</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="W21" s="3" t="n">
         <v>45084</v>
       </c>
       <c r="X21" t="inlineStr">
@@ -4288,7 +4144,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
@@ -4360,10 +4215,6 @@
       <c r="AV21" t="n">
         <v>1</v>
       </c>
-      <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -4372,7 +4223,6 @@
       <c r="BB21" t="n">
         <v>1</v>
       </c>
-      <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="n">
         <v>1</v>
       </c>
@@ -4436,10 +4286,10 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22" s="2" t="n">
+      <c r="O22" s="3" t="n">
         <v>45473</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>45621</v>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4482,7 +4332,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
@@ -4546,19 +4395,12 @@
       <c r="AT22" t="n">
         <v>7.24</v>
       </c>
-      <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="n">
         <v>0</v>
       </c>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
-      <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="n">
         <v>2</v>
       </c>
-      <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="n">
         <v>1</v>
       </c>
@@ -4620,10 +4462,10 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23" s="2" t="n">
+      <c r="O23" s="3" t="n">
         <v>45234</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="3" t="n">
         <v>45274</v>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4636,19 +4478,19 @@
           <t>ZDS-23-LMS-01</t>
         </is>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="3" t="n">
         <v>45029</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>45042</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>45054</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>45068</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="X23" t="inlineStr">
@@ -4656,7 +4498,6 @@
           <t>GENETIAN BUILDERS AND ENTERPRISES INC</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
@@ -4728,10 +4569,6 @@
       <c r="AV23" t="n">
         <v>1</v>
       </c>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -4740,7 +4577,6 @@
       <c r="BB23" t="n">
         <v>1</v>
       </c>
-      <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="n">
         <v>1</v>
       </c>
@@ -4802,10 +4638,10 @@
       <c r="N24" t="n">
         <v>1</v>
       </c>
-      <c r="O24" s="2" t="n">
+      <c r="O24" s="3" t="n">
         <v>45234</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>45260</v>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4818,19 +4654,19 @@
           <t>ZDS-23-LMS-02</t>
         </is>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="S24" s="3" t="n">
         <v>45029</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>45042</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>45054</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>45068</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="X24" t="inlineStr">
@@ -4838,7 +4674,6 @@
           <t>GENETIAN BUILDERS AND ENTERPRISES INC</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
@@ -4910,10 +4745,6 @@
       <c r="AV24" t="n">
         <v>1</v>
       </c>
-      <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -4922,7 +4753,6 @@
       <c r="BB24" t="n">
         <v>1</v>
       </c>
-      <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="n">
         <v>1</v>
       </c>
@@ -4984,7 +4814,7 @@
       <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" s="2" t="n">
+      <c r="O25" s="3" t="n">
         <v>45234</v>
       </c>
       <c r="P25" t="inlineStr">
@@ -5002,19 +4832,19 @@
           <t>ZS-2023-LMS-01</t>
         </is>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="S25" s="3" t="n">
         <v>45020</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="3" t="n">
         <v>45033</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>45044</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="3" t="n">
         <v>45100</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="3" t="n">
         <v>45114</v>
       </c>
       <c r="X25" t="inlineStr">
@@ -5022,7 +4852,6 @@
           <t>Shameem Construction</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
@@ -5097,9 +4926,6 @@
       <c r="AW25" t="n">
         <v>1</v>
       </c>
-      <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -5108,7 +4934,6 @@
       <c r="BB25" t="n">
         <v>1</v>
       </c>
-      <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="n">
         <v>0</v>
       </c>
@@ -5287,15 +5112,6 @@
       <c r="AS26" t="n">
         <v>0</v>
       </c>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
-      <c r="AV26" t="inlineStr"/>
-      <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
-      <c r="BA26" t="inlineStr"/>
-      <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr">
         <is>
           <t>1st</t>
@@ -5364,7 +5180,7 @@
       <c r="N27" t="n">
         <v>0.58</v>
       </c>
-      <c r="O27" s="2" t="n">
+      <c r="O27" s="3" t="n">
         <v>45835</v>
       </c>
       <c r="P27" t="inlineStr">
@@ -5387,16 +5203,16 @@
           <t>-</t>
         </is>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>45611</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>45428</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="W27" s="3" t="n">
         <v>45537</v>
       </c>
       <c r="X27" t="inlineStr">
@@ -5469,15 +5285,6 @@
       <c r="AS27" t="n">
         <v>0</v>
       </c>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
-      <c r="AV27" t="inlineStr"/>
-      <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
-      <c r="BA27" t="inlineStr"/>
-      <c r="BB27" t="inlineStr"/>
       <c r="BC27" t="inlineStr">
         <is>
           <t>1st</t>
@@ -5664,14 +5471,6 @@
       <c r="AT28" t="n">
         <v>1.25</v>
       </c>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
-      <c r="BA28" t="inlineStr"/>
-      <c r="BB28" t="inlineStr"/>
       <c r="BC28" t="inlineStr">
         <is>
           <t>1st</t>
@@ -5745,7 +5544,7 @@
           <t>November 30, 2024</t>
         </is>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="3" t="n">
         <v>45701</v>
       </c>
       <c r="Q29" t="inlineStr">
@@ -5856,14 +5655,6 @@
       <c r="AT29" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="inlineStr"/>
-      <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr">
         <is>
           <t>1st</t>
@@ -5937,7 +5728,7 @@
           <t>November 30, 2024</t>
         </is>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="Q30" t="inlineStr">
@@ -6048,14 +5839,6 @@
       <c r="AT30" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6129,7 +5912,7 @@
           <t>November 30, 2024</t>
         </is>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="P31" s="3" t="n">
         <v>45805</v>
       </c>
       <c r="Q31" t="inlineStr">
@@ -6240,14 +6023,6 @@
       <c r="AT31" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="inlineStr"/>
-      <c r="AW31" t="inlineStr"/>
-      <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
       <c r="BC31" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6321,7 +6096,7 @@
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="3" t="n">
         <v>45595</v>
       </c>
       <c r="Q32" t="inlineStr">
@@ -6364,7 +6139,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
@@ -6428,14 +6202,6 @@
       <c r="AT32" t="n">
         <v>9.24</v>
       </c>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
-      <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6509,7 +6275,7 @@
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>45595</v>
       </c>
       <c r="Q33" t="inlineStr">
@@ -6552,7 +6318,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
@@ -6616,14 +6381,6 @@
       <c r="AT33" t="n">
         <v>9.24</v>
       </c>
-      <c r="AU33" t="inlineStr"/>
-      <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="inlineStr">
         <is>
           <t>4th</t>
@@ -6692,10 +6449,10 @@
       <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O34" s="2" t="n">
+      <c r="O34" s="3" t="n">
         <v>45654</v>
       </c>
-      <c r="P34" s="2" t="n">
+      <c r="P34" s="3" t="n">
         <v>45722</v>
       </c>
       <c r="Q34" t="inlineStr">
@@ -6708,19 +6465,19 @@
           <t>ZDS-24-LMS-01</t>
         </is>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="S34" s="3" t="n">
         <v>45243</v>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="T34" s="3" t="n">
         <v>45251</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="3" t="n">
         <v>45294</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="W34" s="3" t="n">
         <v>45434</v>
       </c>
       <c r="X34" t="inlineStr">
@@ -6728,7 +6485,6 @@
           <t>R.R. GANDINGAN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
@@ -6792,14 +6548,6 @@
       <c r="AT34" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="inlineStr">
         <is>
           <t>2nd</t>
@@ -6868,10 +6616,10 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35" s="2" t="n">
+      <c r="O35" s="3" t="n">
         <v>45614</v>
       </c>
-      <c r="P35" s="2" t="n">
+      <c r="P35" s="3" t="n">
         <v>45611</v>
       </c>
       <c r="Q35" t="inlineStr">
@@ -6884,19 +6632,19 @@
           <t>ZDS-24-LMS-02</t>
         </is>
       </c>
-      <c r="S35" s="2" t="n">
+      <c r="S35" s="3" t="n">
         <v>45243</v>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="T35" s="3" t="n">
         <v>45251</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="3" t="n">
         <v>45294</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="W35" s="3" t="n">
         <v>45434</v>
       </c>
       <c r="X35" t="inlineStr">
@@ -6904,7 +6652,6 @@
           <t>R.R. GANDINGAN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
@@ -6968,14 +6715,6 @@
       <c r="AT35" t="n">
         <v>1.25</v>
       </c>
-      <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="inlineStr"/>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
       <c r="BC35" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7162,14 +6901,6 @@
       <c r="AT36" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU36" t="inlineStr"/>
-      <c r="AV36" t="inlineStr"/>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7356,14 +7087,6 @@
       <c r="AT37" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="inlineStr"/>
-      <c r="AW37" t="inlineStr"/>
-      <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="inlineStr"/>
-      <c r="AZ37" t="inlineStr"/>
-      <c r="BA37" t="inlineStr"/>
-      <c r="BB37" t="inlineStr"/>
       <c r="BC37" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7371,6 +7094,79 @@
       </c>
       <c r="BD37" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="BE2:BE37" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Filtered_By_Region/Region IX/Region IX_LMS.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_LMS.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,15 +64,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,3930 +447,3959 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="51" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="240" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="48" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="33" customWidth="1" min="17" max="17"/>
+    <col width="32" customWidth="1" min="18" max="18"/>
+    <col width="31" customWidth="1" min="19" max="19"/>
+    <col width="27" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="33" customWidth="1" min="22" max="22"/>
+    <col width="31" customWidth="1" min="23" max="23"/>
+    <col width="42" customWidth="1" min="24" max="24"/>
+    <col width="106" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Isabela City</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>305549</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Lampinigan National High School</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>CITY OF ISABELA (Capital)</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>19525553.37566482</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>19417116.63</v>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="n">
+      <c r="N2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6" t="n">
         <v>44560</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="6" t="n">
         <v>44735</v>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>INFRA2021-01</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>INFRA2021-01</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>July 4-11, 2021</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>July 12, 2021</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>July 26, 2021</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>July 29, 2021</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>August 3, 2021</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>2M CONSTRUCTION AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr"/>
-      <c r="Z2" s="4" t="n"/>
+      <c r="Y2" s="5" t="inlineStr"/>
+      <c r="Z2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>126155</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Camp Socorro</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>22006289</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>21998288.85</v>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="n">
+      <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="n">
         <v>44534</v>
       </c>
-      <c r="P3" s="5" t="n">
+      <c r="P3" s="6" t="n">
         <v>44685</v>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>06-0030-21</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>06-0030-21</t>
         </is>
       </c>
-      <c r="S3" s="5" t="n">
+      <c r="S3" s="6" t="n">
         <v>44379</v>
       </c>
-      <c r="T3" s="5" t="n">
+      <c r="T3" s="6" t="n">
         <v>44386</v>
       </c>
-      <c r="U3" s="5" t="n">
+      <c r="U3" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="6" t="n">
         <v>44419</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="6" t="n">
         <v>44429</v>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Zamboanga 3VC CONSTRUCTION INCORPORATED </t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr"/>
-      <c r="Z3" s="4" t="n"/>
+      <c r="Y3" s="5" t="inlineStr"/>
+      <c r="Z3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>303702</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Sitog NHS Ext - Dabiak</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Katipunan</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OFONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>20686643.2610365</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>10204006.09</v>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="n">
+      <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="n">
         <v>44561</v>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="6" t="n">
         <v>44561</v>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>CB 2021-023</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>CB 2021-023</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>July 1, 2021</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>July 9, 2021</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>July 22, 2021</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>July 27, 2021</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>Aug. 4, 2021</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr"/>
-      <c r="Z4" s="4" t="n"/>
+      <c r="Y4" s="5" t="inlineStr"/>
+      <c r="Z4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>303702</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Sitog NHS Ext - Dabiak</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Katipunan</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OFONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr"/>
-      <c r="L5" s="4" t="n">
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="n">
         <v>10204006.09</v>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5" t="n">
+      <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="n">
         <v>44561</v>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="6" t="n">
         <v>44561</v>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>CB 2021-023</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>CB 2021-023</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>July 1, 2021</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>July 9, 2021</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>July 22, 2021</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>July 27, 2021</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>Aug. 4, 2021</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr"/>
-      <c r="Z5" s="4" t="n"/>
+      <c r="Y5" s="5" t="inlineStr"/>
+      <c r="Z5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>124885</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Bag-Ong Mandaue IPS</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>AURORA</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>18695810.12654223</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5" t="n">
         <v>18684761.34</v>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5" t="n">
+      <c r="N6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="n">
         <v>44561</v>
       </c>
-      <c r="P6" s="5" t="n">
+      <c r="P6" s="6" t="n">
         <v>44622</v>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">ZDS- 20- LMS-01 </t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">ZDS- 20- LMS-01 </t>
         </is>
       </c>
-      <c r="S6" s="5" t="n">
+      <c r="S6" s="6" t="n">
         <v>44385</v>
       </c>
-      <c r="T6" s="5" t="n">
+      <c r="T6" s="6" t="n">
         <v>44393</v>
       </c>
-      <c r="U6" s="5" t="n">
+      <c r="U6" s="6" t="n">
         <v>44405</v>
       </c>
-      <c r="V6" s="5" t="n">
+      <c r="V6" s="6" t="n">
         <v>44413</v>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="6" t="n">
         <v>44419</v>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>GENETIAN BUILDERS AND ENTERPRISES INC</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr"/>
-      <c r="Z6" s="4" t="n"/>
+      <c r="Y6" s="5" t="inlineStr"/>
+      <c r="Z6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>125746</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>San Jose PS</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>OLUTANGA</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>19309086.9083</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="5" t="n">
         <v>19290632.4</v>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>On-going Suspension Order since March 02, 2022</t>
         </is>
       </c>
-      <c r="P7" s="4" t="inlineStr">
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q7" s="4" t="inlineStr">
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>ZSY-2020LMS-01</t>
         </is>
       </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>ZSY-2020LMS-01</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>June 29, 2021</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>July 17, 2021</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>July 19, 2021</t>
         </is>
       </c>
-      <c r="V7" s="5" t="n">
+      <c r="V7" s="6" t="n">
         <v>44407</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="6" t="n">
         <v>44434</v>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>CPAN Engineering &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>Change Order (Water Pump Solar Panel) for C.O. approval</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="n"/>
+      <c r="Z7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Isabela City</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>133031</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Caro ES</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>CITY OF ISABELA (Capital)</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF  (1) ONE STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>10045807.57199249</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="N8" s="5" t="n">
         <v>0.18</v>
       </c>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P8" s="4" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="Q8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>PRISMOIDAL CONSRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE MANAGED</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="n"/>
+      <c r="Z8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>126129</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Sapa Dulian ES</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND  OF DRILLING FOR DEEPWELL  WATER SYSTEM &amp; SOLAR PUMP</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>21293479.9976114</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="N9" s="5" t="n">
         <v>0.34</v>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P9" s="4" t="inlineStr">
+      <c r="P9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T9" s="4" t="inlineStr">
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>PRISMOIDAL CONSRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE MANAGED</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="n"/>
+      <c r="Z9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>126129</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Sapa Dulian ES</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="4" t="inlineStr"/>
-      <c r="I10" s="4" t="n">
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND  OF DRILLING FOR DEEPWELL  WATER SYSTEM &amp; SOLAR PUMP</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>6520</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="N10" s="5" t="n">
         <v>0.34</v>
       </c>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P10" s="4" t="inlineStr">
+      <c r="P10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q10" s="4" t="n">
+      <c r="Q10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="4" t="n">
+      <c r="R10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W10" s="4" t="inlineStr">
+      <c r="W10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>PRISMOIDAL CONSRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE MANAGED</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="n"/>
+      <c r="Z10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>195529</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Basak ES</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>SIAYAN</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>10394988.93971361</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="P11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="n">
+      <c r="Q11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="4" t="n">
+      <c r="R11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T11" s="4" t="inlineStr">
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="U11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="V11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W11" s="4" t="inlineStr">
+      <c r="W11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>PRISMOIDAL CONSRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE MANAGED</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="n"/>
+      <c r="Z11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>300000</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Digon National High School</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>MARGOSATUBIG</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>18679356.24</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>ABANDONED</t>
         </is>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="N12" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="O12" s="6" t="n">
         <v>44802</v>
       </c>
-      <c r="P12" s="4" t="inlineStr">
+      <c r="P12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q12" s="4" t="n">
+      <c r="Q12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R12" s="4" t="n">
+      <c r="R12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S12" s="4" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T12" s="4" t="inlineStr">
+      <c r="T12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U12" s="4" t="inlineStr">
+      <c r="U12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="V12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="6" t="n">
         <v>44712</v>
       </c>
-      <c r="X12" s="4" t="inlineStr">
+      <c r="X12" s="5" t="inlineStr">
         <is>
           <t>PRISMOIDAL CONSRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE MANAGED</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="n"/>
+      <c r="Z12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>125639</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Datagan ES</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Kabasalan</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>16697503.52</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="N13" s="5" t="n">
         <v>0.38</v>
       </c>
-      <c r="O13" s="4" t="inlineStr">
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P13" s="4" t="inlineStr">
+      <c r="P13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q13" s="4" t="n">
+      <c r="Q13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R13" s="4" t="n">
+      <c r="R13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T13" s="4" t="inlineStr">
+      <c r="T13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" s="4" t="inlineStr">
+      <c r="U13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="V13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W13" s="4" t="inlineStr">
+      <c r="W13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="X13" s="5" t="inlineStr">
         <is>
           <t>PRISMOIDAL CONSRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE MANAGED</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="n"/>
+      <c r="Z13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>124538</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Head Tipan ES</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="G14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>15387438.1528</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <v>15899497.92</v>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5" t="n">
+      <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6" t="n">
         <v>45026</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="P14" s="6" t="n">
         <v>45026</v>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
+      <c r="Q14" s="5" t="inlineStr">
         <is>
           <t>2022-055-CBZN</t>
         </is>
       </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>CB-2022-039</t>
         </is>
       </c>
-      <c r="S14" s="5" t="n">
+      <c r="S14" s="6" t="n">
         <v>44862</v>
       </c>
-      <c r="T14" s="5" t="n">
+      <c r="T14" s="6" t="n">
         <v>44872</v>
       </c>
-      <c r="U14" s="5" t="n">
+      <c r="U14" s="6" t="n">
         <v>44883</v>
       </c>
-      <c r="V14" s="5" t="n">
+      <c r="V14" s="6" t="n">
         <v>44896</v>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="6" t="n">
         <v>44902</v>
       </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="X14" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="n"/>
+      <c r="Z14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>124609</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Nilabo ES</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>RIZAL</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="G15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>21731277.28767706</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5" t="n">
         <v>22131576</v>
       </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="n">
+      <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6" t="n">
         <v>44926</v>
       </c>
-      <c r="P15" s="5" t="n">
+      <c r="P15" s="6" t="n">
         <v>44977</v>
       </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="Q15" s="5" t="inlineStr">
         <is>
           <t>LMS2020-RIX-ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-RIX-ZDN-01</t>
         </is>
       </c>
-      <c r="S15" s="5" t="n">
+      <c r="S15" s="6" t="n">
         <v>44655</v>
       </c>
-      <c r="T15" s="5" t="n">
+      <c r="T15" s="6" t="n">
         <v>44664</v>
       </c>
-      <c r="U15" s="5" t="n">
+      <c r="U15" s="6" t="n">
         <v>44676</v>
       </c>
-      <c r="V15" s="5" t="n">
+      <c r="V15" s="6" t="n">
         <v>44685</v>
       </c>
-      <c r="W15" s="5" t="n">
+      <c r="W15" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X15" s="4" t="inlineStr">
+      <c r="X15" s="5" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="n"/>
+      <c r="Z15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>125086</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>INIGO G. MERCADO PS</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>JOSEFINA</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="G16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>18280842.6521</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5" t="n">
         <v>17133688.9</v>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5" t="n">
+      <c r="N16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6" t="n">
         <v>44921</v>
       </c>
-      <c r="P16" s="5" t="n">
+      <c r="P16" s="6" t="n">
         <v>44914</v>
       </c>
-      <c r="Q16" s="4" t="inlineStr">
+      <c r="Q16" s="5" t="inlineStr">
         <is>
           <t>ZDS-22-LMS-01</t>
         </is>
       </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>ZDS-22-LMS-01</t>
         </is>
       </c>
-      <c r="S16" s="5" t="n">
+      <c r="S16" s="6" t="n">
         <v>45021</v>
       </c>
-      <c r="T16" s="5" t="n">
+      <c r="T16" s="6" t="n">
         <v>45030</v>
       </c>
-      <c r="U16" s="5" t="n">
+      <c r="U16" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="6" t="n">
         <v>45076</v>
       </c>
-      <c r="W16" s="5" t="n">
+      <c r="W16" s="6" t="n">
         <v>45084</v>
       </c>
-      <c r="X16" s="4" t="inlineStr">
+      <c r="X16" s="5" t="inlineStr">
         <is>
           <t>GENETIAN BUILDERS AND ENTERPRISES INC</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="inlineStr"/>
-      <c r="Z16" s="4" t="n"/>
+      <c r="Y16" s="5" t="inlineStr"/>
+      <c r="Z16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>125845</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Bualan ES</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>TALUSAN</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="G17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) UNIT - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>7551146.3957</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="5" t="n">
         <v>25295175.54</v>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="n">
+      <c r="N17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6" t="n">
         <v>45590</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="P17" s="6" t="n">
         <v>45667</v>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="Q17" s="5" t="inlineStr">
         <is>
           <t>2023-024-CBZN</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>CB2023-023</t>
         </is>
       </c>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>Nov. 14, 2023</t>
         </is>
       </c>
-      <c r="T17" s="4" t="inlineStr">
+      <c r="T17" s="5" t="inlineStr">
         <is>
           <t>Nov. 24, 2023</t>
         </is>
       </c>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="U17" s="5" t="inlineStr">
         <is>
           <t>Dec. 07, 2023</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="V17" s="5" t="inlineStr">
         <is>
           <t>Dec. 18, 2023</t>
         </is>
       </c>
-      <c r="W17" s="4" t="inlineStr">
+      <c r="W17" s="5" t="inlineStr">
         <is>
           <t>Dec. 28, 2023</t>
         </is>
       </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="n">
+      <c r="Y17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z17" s="4" t="n"/>
+      <c r="Z17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>303871</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Kasigpitan NHS</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>TALUSAN</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="G18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) UNIT - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>7571189.8457</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="5" t="n">
         <v>18787999.57</v>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5" t="n">
+      <c r="N18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6" t="n">
         <v>45590</v>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="6" t="n">
         <v>45667</v>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="Q18" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-01</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-01</t>
         </is>
       </c>
-      <c r="S18" s="5" t="n">
+      <c r="S18" s="6" t="n">
         <v>45029</v>
       </c>
-      <c r="T18" s="5" t="n">
+      <c r="T18" s="6" t="n">
         <v>45042</v>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="6" t="n">
         <v>45077</v>
       </c>
-      <c r="X18" s="4" t="inlineStr">
+      <c r="X18" s="5" t="inlineStr">
         <is>
           <t>Genetian Builders &amp; Enterprises Inc.</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="inlineStr"/>
-      <c r="Z18" s="4" t="n"/>
+      <c r="Y18" s="5" t="inlineStr"/>
+      <c r="Z18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>314308</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Laparay NHS</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>TALUSAN</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="G19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>11431953.6095</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <v>18086919.56</v>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5" t="n">
+      <c r="N19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6" t="n">
         <v>45234</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="6" t="n">
         <v>45415</v>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="Q19" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-02</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-02</t>
         </is>
       </c>
-      <c r="S19" s="5" t="n">
+      <c r="S19" s="6" t="n">
         <v>45029</v>
       </c>
-      <c r="T19" s="5" t="n">
+      <c r="T19" s="6" t="n">
         <v>45042</v>
       </c>
-      <c r="U19" s="5" t="n">
+      <c r="U19" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V19" s="5" t="n">
+      <c r="V19" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="W19" s="5" t="n">
+      <c r="W19" s="6" t="n">
         <v>45077</v>
       </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>Genetian Builders &amp; Enterprises Inc.</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="inlineStr"/>
-      <c r="Z19" s="4" t="n"/>
+      <c r="Y19" s="5" t="inlineStr"/>
+      <c r="Z19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>125850</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Mahayahay ES</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>TALUSAN</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="G20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) UNIT - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>7540541.3957</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <v>11154681.24</v>
       </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5" t="n">
+      <c r="N20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6" t="n">
         <v>45590</v>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="6" t="n">
         <v>45667</v>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr">
         <is>
           <t>ZS-2023-LMS-01</t>
         </is>
       </c>
-      <c r="R20" s="4" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>ZS-2023-LMS-01</t>
         </is>
       </c>
-      <c r="S20" s="5" t="n">
+      <c r="S20" s="6" t="n">
         <v>45020</v>
       </c>
-      <c r="T20" s="5" t="n">
+      <c r="T20" s="6" t="n">
         <v>45033</v>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="6" t="n">
         <v>45044</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="6" t="n">
         <v>45100</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="6" t="n">
         <v>45114</v>
       </c>
-      <c r="X20" s="4" t="inlineStr">
+      <c r="X20" s="5" t="inlineStr">
         <is>
           <t>Shameem Construction</t>
         </is>
       </c>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Z20" s="4" t="n"/>
+      <c r="Z20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>303714</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Mutia NHS Annex - Tubak</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="G21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHT AND SOLAR PV ENERGY SYSTEM </t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <v>17166895.91</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <v>16993668.9</v>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5" t="n">
+      <c r="N21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6" t="n">
         <v>45245</v>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="P21" s="6" t="n">
         <v>45290</v>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>2023-8-CBZN</t>
         </is>
       </c>
-      <c r="R21" s="4" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>CB-2023-008</t>
         </is>
       </c>
-      <c r="S21" s="5" t="n">
+      <c r="S21" s="6" t="n">
         <v>45021</v>
       </c>
-      <c r="T21" s="5" t="n">
+      <c r="T21" s="6" t="n">
         <v>45030</v>
       </c>
-      <c r="U21" s="5" t="n">
+      <c r="U21" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="V21" s="5" t="n">
+      <c r="V21" s="6" t="n">
         <v>45076</v>
       </c>
-      <c r="W21" s="5" t="n">
+      <c r="W21" s="6" t="n">
         <v>45084</v>
       </c>
-      <c r="X21" s="4" t="inlineStr">
+      <c r="X21" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y21" s="4" t="inlineStr"/>
-      <c r="Z21" s="4" t="n"/>
+      <c r="Y21" s="5" t="inlineStr"/>
+      <c r="Z21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>124547</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Adante ES</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>PIÑAN (NEW PIÑAN)</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHT, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>25577846.13</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="5" t="n">
         <v>25295175.54</v>
       </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5" t="n">
+      <c r="N22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6" t="n">
         <v>45473</v>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="6" t="n">
         <v>45621</v>
       </c>
-      <c r="Q22" s="4" t="inlineStr">
+      <c r="Q22" s="5" t="inlineStr">
         <is>
           <t>2023-024-CBZN</t>
         </is>
       </c>
-      <c r="R22" s="4" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>CB2023-023</t>
         </is>
       </c>
-      <c r="S22" s="4" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>Nov. 14, 2023</t>
         </is>
       </c>
-      <c r="T22" s="4" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>Nov. 24, 2023</t>
         </is>
       </c>
-      <c r="U22" s="4" t="inlineStr">
+      <c r="U22" s="5" t="inlineStr">
         <is>
           <t>Dec. 07, 2023</t>
         </is>
       </c>
-      <c r="V22" s="4" t="inlineStr">
+      <c r="V22" s="5" t="inlineStr">
         <is>
           <t>Dec. 18, 2023</t>
         </is>
       </c>
-      <c r="W22" s="4" t="inlineStr">
+      <c r="W22" s="5" t="inlineStr">
         <is>
           <t>Dec. 28, 2023</t>
         </is>
       </c>
-      <c r="X22" s="4" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y22" s="4" t="inlineStr"/>
-      <c r="Z22" s="4" t="n"/>
+      <c r="Y22" s="5" t="inlineStr"/>
+      <c r="Z22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>125307</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Bag-ong Opon Elementary School</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>RAMON MAGSAYSAY (LIARGO)</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="G23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <v>19077138.92</v>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="5" t="n">
         <v>18787999.57</v>
       </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="5" t="n">
+      <c r="N23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6" t="n">
         <v>45234</v>
       </c>
-      <c r="P23" s="5" t="n">
+      <c r="P23" s="6" t="n">
         <v>45274</v>
       </c>
-      <c r="Q23" s="4" t="inlineStr">
+      <c r="Q23" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-01</t>
         </is>
       </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-01</t>
         </is>
       </c>
-      <c r="S23" s="5" t="n">
+      <c r="S23" s="6" t="n">
         <v>45029</v>
       </c>
-      <c r="T23" s="5" t="n">
+      <c r="T23" s="6" t="n">
         <v>45042</v>
       </c>
-      <c r="U23" s="5" t="n">
+      <c r="U23" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V23" s="5" t="n">
+      <c r="V23" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="W23" s="5" t="n">
+      <c r="W23" s="6" t="n">
         <v>45077</v>
       </c>
-      <c r="X23" s="4" t="inlineStr">
+      <c r="X23" s="5" t="inlineStr">
         <is>
           <t>GENETIAN BUILDERS AND ENTERPRISES INC</t>
         </is>
       </c>
-      <c r="Y23" s="4" t="inlineStr"/>
-      <c r="Z23" s="4" t="n"/>
+      <c r="Y23" s="5" t="inlineStr"/>
+      <c r="Z23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>124940</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Buburay ES</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>DIMATALING</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>18381376.01</v>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="5" t="n">
         <v>18086919.56</v>
       </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="5" t="n">
+      <c r="N24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6" t="n">
         <v>45234</v>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="P24" s="6" t="n">
         <v>45260</v>
       </c>
-      <c r="Q24" s="4" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-02</t>
         </is>
       </c>
-      <c r="R24" s="4" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-02</t>
         </is>
       </c>
-      <c r="S24" s="5" t="n">
+      <c r="S24" s="6" t="n">
         <v>45029</v>
       </c>
-      <c r="T24" s="5" t="n">
+      <c r="T24" s="6" t="n">
         <v>45042</v>
       </c>
-      <c r="U24" s="5" t="n">
+      <c r="U24" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V24" s="5" t="n">
+      <c r="V24" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="W24" s="5" t="n">
+      <c r="W24" s="6" t="n">
         <v>45077</v>
       </c>
-      <c r="X24" s="4" t="inlineStr">
+      <c r="X24" s="5" t="inlineStr">
         <is>
           <t>GENETIAN BUILDERS AND ENTERPRISES INC</t>
         </is>
       </c>
-      <c r="Y24" s="4" t="inlineStr"/>
-      <c r="Z24" s="4" t="n"/>
+      <c r="Y24" s="5" t="inlineStr"/>
+      <c r="Z24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>125854</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>Talusan CES</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>TALUSAN</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="G25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <v>13320323.48</v>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="5" t="n">
         <v>11154681.24</v>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5" t="n">
+      <c r="N25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6" t="n">
         <v>45234</v>
       </c>
-      <c r="P25" s="4" t="inlineStr">
+      <c r="P25" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q25" s="4" t="inlineStr">
+      <c r="Q25" s="5" t="inlineStr">
         <is>
           <t>ZS-2023-LMS-01</t>
         </is>
       </c>
-      <c r="R25" s="4" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>ZS-2023-LMS-01</t>
         </is>
       </c>
-      <c r="S25" s="5" t="n">
+      <c r="S25" s="6" t="n">
         <v>45020</v>
       </c>
-      <c r="T25" s="5" t="n">
+      <c r="T25" s="6" t="n">
         <v>45033</v>
       </c>
-      <c r="U25" s="5" t="n">
+      <c r="U25" s="6" t="n">
         <v>45044</v>
       </c>
-      <c r="V25" s="5" t="n">
+      <c r="V25" s="6" t="n">
         <v>45100</v>
       </c>
-      <c r="W25" s="5" t="n">
+      <c r="W25" s="6" t="n">
         <v>45114</v>
       </c>
-      <c r="X25" s="4" t="inlineStr">
+      <c r="X25" s="5" t="inlineStr">
         <is>
           <t>Shameem Construction</t>
         </is>
       </c>
-      <c r="Y25" s="4" t="inlineStr"/>
-      <c r="Z25" s="4" t="n"/>
+      <c r="Y25" s="5" t="inlineStr"/>
+      <c r="Z25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>125928</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Daro Elementary School</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="n">
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITs ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHT, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="5" t="n">
         <v>22816847.47</v>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="5" t="n">
         <v>22512075.6</v>
       </c>
-      <c r="M26" s="4" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N26" s="4" t="n">
+      <c r="N26" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="O26" s="4" t="inlineStr">
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>November 14, 2024</t>
         </is>
       </c>
-      <c r="P26" s="4" t="inlineStr">
+      <c r="P26" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-004</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-004</t>
         </is>
       </c>
-      <c r="S26" s="4" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>November 14, 2023</t>
         </is>
       </c>
-      <c r="T26" s="4" t="inlineStr">
+      <c r="T26" s="5" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="U26" s="4" t="inlineStr">
+      <c r="U26" s="5" t="inlineStr">
         <is>
           <t>December 07, 2023</t>
         </is>
       </c>
-      <c r="V26" s="4" t="inlineStr">
+      <c r="V26" s="5" t="inlineStr">
         <is>
           <t>May 06, 2024</t>
         </is>
       </c>
-      <c r="W26" s="4" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr">
         <is>
           <t>May 17, 2024</t>
         </is>
       </c>
-      <c r="X26" s="4" t="inlineStr">
+      <c r="X26" s="5" t="inlineStr">
         <is>
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y26" s="4" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Z26" s="4" t="n"/>
+      <c r="Z26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Isabela City</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>502129</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Badjao Floating Integrated School</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>CITY OF ISABELA (Capital)</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>19205159.17</v>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="5" t="n">
         <v>17785991.82</v>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N27" s="4" t="n">
+      <c r="N27" s="5" t="n">
         <v>0.58</v>
       </c>
-      <c r="O27" s="5" t="n">
+      <c r="O27" s="6" t="n">
         <v>45835</v>
       </c>
-      <c r="P27" s="4" t="inlineStr">
+      <c r="P27" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="Q27" s="5" t="inlineStr">
         <is>
           <t>INFRAEPA2024-01</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S27" s="4" t="inlineStr">
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="T27" s="5" t="n">
+      <c r="T27" s="6" t="n">
         <v>45611</v>
       </c>
-      <c r="U27" s="5" t="n">
+      <c r="U27" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="V27" s="5" t="n">
+      <c r="V27" s="6" t="n">
         <v>45428</v>
       </c>
-      <c r="W27" s="5" t="n">
+      <c r="W27" s="6" t="n">
         <v>45537</v>
       </c>
-      <c r="X27" s="4" t="inlineStr">
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t>2M CONSTRUCTION AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y27" s="4" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="Z27" s="4" t="n"/>
+      <c r="Z27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Pagadian City</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>198503</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Bentud Pinukis Penintulan Nu Piksalabukan Subanen</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>PAGADIAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="5" t="n">
         <v>22198056.48</v>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="5" t="n">
         <v>21927158.04</v>
       </c>
-      <c r="M28" s="4" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="4" t="inlineStr">
+      <c r="N28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>December 04, 2024</t>
         </is>
       </c>
-      <c r="P28" s="4" t="inlineStr">
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>December 04, 2024</t>
         </is>
       </c>
-      <c r="Q28" s="4" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-RIX-PAG-01</t>
         </is>
       </c>
-      <c r="R28" s="4" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-RIX-PAG-01</t>
         </is>
       </c>
-      <c r="S28" s="4" t="inlineStr">
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>November 13, 2023</t>
         </is>
       </c>
-      <c r="T28" s="4" t="inlineStr">
+      <c r="T28" s="5" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="U28" s="4" t="inlineStr">
+      <c r="U28" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V28" s="4" t="inlineStr">
+      <c r="V28" s="5" t="inlineStr">
         <is>
           <t>December 11, 2023</t>
         </is>
       </c>
-      <c r="W28" s="4" t="inlineStr">
+      <c r="W28" s="5" t="inlineStr">
         <is>
           <t>June 03, 2024</t>
         </is>
       </c>
-      <c r="X28" s="4" t="inlineStr">
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t>GENETIAN BUILDERS &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y28" s="4" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="Z28" s="4" t="n"/>
+      <c r="Z28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>126168</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Pasilmanta ES</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="5" t="n">
         <v>25252525.25</v>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="5" t="n">
         <v>24974606.93</v>
       </c>
-      <c r="M29" s="4" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4" t="inlineStr">
+      <c r="N29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>November 30, 2024</t>
         </is>
       </c>
-      <c r="P29" s="5" t="n">
+      <c r="P29" s="6" t="n">
         <v>45701</v>
       </c>
-      <c r="Q29" s="4" t="inlineStr">
+      <c r="Q29" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 -RIX- ZAMBO CITY - 02</t>
         </is>
       </c>
-      <c r="R29" s="4" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 -RIX- ZAMBO CITY - 02</t>
         </is>
       </c>
-      <c r="S29" s="4" t="inlineStr">
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>October 30,2023</t>
         </is>
       </c>
-      <c r="T29" s="4" t="inlineStr">
+      <c r="T29" s="5" t="inlineStr">
         <is>
           <t>November 7, 2023</t>
         </is>
       </c>
-      <c r="U29" s="4" t="inlineStr">
+      <c r="U29" s="5" t="inlineStr">
         <is>
           <t>November 20,2023</t>
         </is>
       </c>
-      <c r="V29" s="4" t="inlineStr">
+      <c r="V29" s="5" t="inlineStr">
         <is>
           <t>May 13,2024</t>
         </is>
       </c>
-      <c r="W29" s="4" t="inlineStr">
+      <c r="W29" s="5" t="inlineStr">
         <is>
           <t>June 03, 2024</t>
         </is>
       </c>
-      <c r="X29" s="4" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA 3VC CONSTRUCTION INC,</t>
         </is>
       </c>
-      <c r="Y29" s="4" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>With Approved Time Extension</t>
         </is>
       </c>
-      <c r="Z29" s="4" t="n"/>
+      <c r="Z29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>126133</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Simanta ES</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="5" t="n">
         <v>25252525.25</v>
       </c>
-      <c r="L30" s="4" t="n">
+      <c r="L30" s="5" t="n">
         <v>24988205.79</v>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="4" t="inlineStr">
+      <c r="N30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>November 30, 2024</t>
         </is>
       </c>
-      <c r="P30" s="5" t="n">
+      <c r="P30" s="6" t="n">
         <v>45698</v>
       </c>
-      <c r="Q30" s="4" t="inlineStr">
+      <c r="Q30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 -RIX- ZAMBO CITY - 01</t>
         </is>
       </c>
-      <c r="R30" s="4" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 -RIX- ZAMBO CITY - 01</t>
         </is>
       </c>
-      <c r="S30" s="4" t="inlineStr">
+      <c r="S30" s="5" t="inlineStr">
         <is>
           <t>October 30,2023</t>
         </is>
       </c>
-      <c r="T30" s="4" t="inlineStr">
+      <c r="T30" s="5" t="inlineStr">
         <is>
           <t>November 7, 2023</t>
         </is>
       </c>
-      <c r="U30" s="4" t="inlineStr">
+      <c r="U30" s="5" t="inlineStr">
         <is>
           <t>November 20,2023</t>
         </is>
       </c>
-      <c r="V30" s="4" t="inlineStr">
+      <c r="V30" s="5" t="inlineStr">
         <is>
           <t>May 13,2024</t>
         </is>
       </c>
-      <c r="W30" s="4" t="inlineStr">
+      <c r="W30" s="5" t="inlineStr">
         <is>
           <t>June 03, 2024</t>
         </is>
       </c>
-      <c r="X30" s="4" t="inlineStr">
+      <c r="X30" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA 3VC CONSTRUCTION INC,</t>
         </is>
       </c>
-      <c r="Y30" s="4" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>With Approved Time Extension</t>
         </is>
       </c>
-      <c r="Z30" s="4" t="n"/>
+      <c r="Z30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>126167</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Panganak ES</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="5" t="n">
         <v>25252525.25</v>
       </c>
-      <c r="L31" s="4" t="n">
+      <c r="L31" s="5" t="n">
         <v>24980749.43</v>
       </c>
-      <c r="M31" s="4" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="4" t="inlineStr">
+      <c r="N31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t>November 30, 2024</t>
         </is>
       </c>
-      <c r="P31" s="5" t="n">
+      <c r="P31" s="6" t="n">
         <v>45805</v>
       </c>
-      <c r="Q31" s="4" t="inlineStr">
+      <c r="Q31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 -RIX- ZAMBO CITY - 03</t>
         </is>
       </c>
-      <c r="R31" s="4" t="inlineStr">
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 -RIX- ZAMBO CITY - 03</t>
         </is>
       </c>
-      <c r="S31" s="4" t="inlineStr">
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>October 30,2023</t>
         </is>
       </c>
-      <c r="T31" s="4" t="inlineStr">
+      <c r="T31" s="5" t="inlineStr">
         <is>
           <t>November 7, 2023</t>
         </is>
       </c>
-      <c r="U31" s="4" t="inlineStr">
+      <c r="U31" s="5" t="inlineStr">
         <is>
           <t>November 20,2023</t>
         </is>
       </c>
-      <c r="V31" s="4" t="inlineStr">
+      <c r="V31" s="5" t="inlineStr">
         <is>
           <t>May 13,2024</t>
         </is>
       </c>
-      <c r="W31" s="4" t="inlineStr">
+      <c r="W31" s="5" t="inlineStr">
         <is>
           <t>June 03, 2024</t>
         </is>
       </c>
-      <c r="X31" s="4" t="inlineStr">
+      <c r="X31" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA 3VC CONSTRUCTION INC,</t>
         </is>
       </c>
-      <c r="Y31" s="4" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>With Approved Time Extension</t>
         </is>
       </c>
-      <c r="Z31" s="4" t="n"/>
+      <c r="Z31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>124673</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>Tinago ES</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>SERGIO OSMEÑA SR.</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHT, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="5" t="n">
         <v>24985083.83</v>
       </c>
-      <c r="L32" s="4" t="n">
+      <c r="L32" s="5" t="n">
         <v>25698497.43</v>
       </c>
-      <c r="M32" s="4" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="4" t="inlineStr">
+      <c r="N32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="P32" s="5" t="n">
+      <c r="P32" s="6" t="n">
         <v>45595</v>
       </c>
-      <c r="Q32" s="4" t="inlineStr">
+      <c r="Q32" s="5" t="inlineStr">
         <is>
           <t>2024-005-CBZN</t>
         </is>
       </c>
-      <c r="R32" s="4" t="inlineStr">
+      <c r="R32" s="5" t="inlineStr">
         <is>
           <t>CB-2024-018</t>
         </is>
       </c>
-      <c r="S32" s="4" t="inlineStr">
+      <c r="S32" s="5" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="T32" s="4" t="inlineStr">
+      <c r="T32" s="5" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="U32" s="4" t="inlineStr">
+      <c r="U32" s="5" t="inlineStr">
         <is>
           <t>December 07, 2023</t>
         </is>
       </c>
-      <c r="V32" s="4" t="inlineStr">
+      <c r="V32" s="5" t="inlineStr">
         <is>
           <t>December 22, 2023</t>
         </is>
       </c>
-      <c r="W32" s="4" t="inlineStr">
+      <c r="W32" s="5" t="inlineStr">
         <is>
           <t>May 20, 2024</t>
         </is>
       </c>
-      <c r="X32" s="4" t="inlineStr">
+      <c r="X32" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y32" s="4" t="inlineStr"/>
-      <c r="Z32" s="4" t="n"/>
+      <c r="Y32" s="5" t="inlineStr"/>
+      <c r="Z32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>303702</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>SITOG NHS - SEROAN EXT.</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>KATIPUNAN</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="n">
+      <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHT, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>24985434.88</v>
       </c>
-      <c r="L33" s="4" t="n">
+      <c r="L33" s="5" t="n">
         <v>24704050.49</v>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="4" t="inlineStr">
+      <c r="N33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5" t="inlineStr">
         <is>
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="P33" s="5" t="n">
+      <c r="P33" s="6" t="n">
         <v>45595</v>
       </c>
-      <c r="Q33" s="4" t="inlineStr">
+      <c r="Q33" s="5" t="inlineStr">
         <is>
           <t>2024-006-CBZN</t>
         </is>
       </c>
-      <c r="R33" s="4" t="inlineStr">
+      <c r="R33" s="5" t="inlineStr">
         <is>
           <t>CB-2024-019</t>
         </is>
       </c>
-      <c r="S33" s="4" t="inlineStr">
+      <c r="S33" s="5" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="T33" s="4" t="inlineStr">
+      <c r="T33" s="5" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="U33" s="4" t="inlineStr">
+      <c r="U33" s="5" t="inlineStr">
         <is>
           <t>December 07, 2023</t>
         </is>
       </c>
-      <c r="V33" s="4" t="inlineStr">
+      <c r="V33" s="5" t="inlineStr">
         <is>
           <t>December 22, 2023</t>
         </is>
       </c>
-      <c r="W33" s="4" t="inlineStr">
+      <c r="W33" s="5" t="inlineStr">
         <is>
           <t>May 20, 2024</t>
         </is>
       </c>
-      <c r="X33" s="4" t="inlineStr">
+      <c r="X33" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y33" s="4" t="inlineStr"/>
-      <c r="Z33" s="4" t="n"/>
+      <c r="Y33" s="5" t="inlineStr"/>
+      <c r="Z33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>125481</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Sto. Rosario Elementary School</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>TUKURAN</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="n">
+      <c r="H34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="5" t="n">
         <v>23519080.9</v>
       </c>
-      <c r="L34" s="4" t="n">
+      <c r="L34" s="5" t="n">
         <v>21703822.5</v>
       </c>
-      <c r="M34" s="4" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="5" t="n">
+      <c r="N34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="6" t="n">
         <v>45654</v>
       </c>
-      <c r="P34" s="5" t="n">
+      <c r="P34" s="6" t="n">
         <v>45722</v>
       </c>
-      <c r="Q34" s="4" t="inlineStr">
+      <c r="Q34" s="5" t="inlineStr">
         <is>
           <t>ZDS-24-LMS-01</t>
         </is>
       </c>
-      <c r="R34" s="4" t="inlineStr">
+      <c r="R34" s="5" t="inlineStr">
         <is>
           <t>ZDS-24-LMS-01</t>
         </is>
       </c>
-      <c r="S34" s="5" t="n">
+      <c r="S34" s="6" t="n">
         <v>45243</v>
       </c>
-      <c r="T34" s="5" t="n">
+      <c r="T34" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="U34" s="5" t="n">
+      <c r="U34" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="V34" s="5" t="n">
+      <c r="V34" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="W34" s="5" t="n">
+      <c r="W34" s="6" t="n">
         <v>45434</v>
       </c>
-      <c r="X34" s="4" t="inlineStr">
+      <c r="X34" s="5" t="inlineStr">
         <is>
           <t>R.R. GANDINGAN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y34" s="4" t="inlineStr"/>
-      <c r="Z34" s="4" t="n"/>
+      <c r="Y34" s="5" t="inlineStr"/>
+      <c r="Z34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>125350</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>TAPIAN ES</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4" t="n">
+      <c r="H35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="5" t="n">
         <v>22127905.86</v>
       </c>
-      <c r="L35" s="4" t="n">
+      <c r="L35" s="5" t="n">
         <v>20576515</v>
       </c>
-      <c r="M35" s="4" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="5" t="n">
+      <c r="N35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="6" t="n">
         <v>45614</v>
       </c>
-      <c r="P35" s="5" t="n">
+      <c r="P35" s="6" t="n">
         <v>45611</v>
       </c>
-      <c r="Q35" s="4" t="inlineStr">
+      <c r="Q35" s="5" t="inlineStr">
         <is>
           <t>ZDS-24-LMS-02</t>
         </is>
       </c>
-      <c r="R35" s="4" t="inlineStr">
+      <c r="R35" s="5" t="inlineStr">
         <is>
           <t>ZDS-24-LMS-02</t>
         </is>
       </c>
-      <c r="S35" s="5" t="n">
+      <c r="S35" s="6" t="n">
         <v>45243</v>
       </c>
-      <c r="T35" s="5" t="n">
+      <c r="T35" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="U35" s="5" t="n">
+      <c r="U35" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="V35" s="5" t="n">
+      <c r="V35" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="W35" s="5" t="n">
+      <c r="W35" s="6" t="n">
         <v>45434</v>
       </c>
-      <c r="X35" s="4" t="inlineStr">
+      <c r="X35" s="5" t="inlineStr">
         <is>
           <t>R.R. GANDINGAN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y35" s="4" t="inlineStr"/>
-      <c r="Z35" s="4" t="n"/>
+      <c r="Y35" s="5" t="inlineStr"/>
+      <c r="Z35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="5" t="n">
         <v>303858</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>Bulawan NHS</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>Payao</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="n">
+      <c r="H36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="5" t="n">
         <v>13539348.82</v>
       </c>
-      <c r="L36" s="4" t="n">
+      <c r="L36" s="5" t="n">
         <v>12340386.36</v>
       </c>
-      <c r="M36" s="4" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" s="4" t="inlineStr">
+      <c r="N36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="5" t="inlineStr">
         <is>
           <t>October 23, 2024</t>
         </is>
       </c>
-      <c r="P36" s="4" t="inlineStr">
+      <c r="P36" s="5" t="inlineStr">
         <is>
           <t>March 19, 2025</t>
         </is>
       </c>
-      <c r="Q36" s="4" t="inlineStr">
+      <c r="Q36" s="5" t="inlineStr">
         <is>
           <t>ZSY-2024LMS-01</t>
         </is>
       </c>
-      <c r="R36" s="4" t="inlineStr">
+      <c r="R36" s="5" t="inlineStr">
         <is>
           <t>ZSY-2024LMS-01</t>
         </is>
       </c>
-      <c r="S36" s="4" t="inlineStr">
+      <c r="S36" s="5" t="inlineStr">
         <is>
           <t>November 22, 2023</t>
         </is>
       </c>
-      <c r="T36" s="4" t="inlineStr">
+      <c r="T36" s="5" t="inlineStr">
         <is>
           <t>November 29, 2023</t>
         </is>
       </c>
-      <c r="U36" s="4" t="inlineStr">
+      <c r="U36" s="5" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="V36" s="4" t="inlineStr">
+      <c r="V36" s="5" t="inlineStr">
         <is>
           <t>February 28, 2024</t>
         </is>
       </c>
-      <c r="W36" s="4" t="inlineStr">
+      <c r="W36" s="5" t="inlineStr">
         <is>
           <t>June 26, 2024</t>
         </is>
       </c>
-      <c r="X36" s="4" t="inlineStr">
+      <c r="X36" s="5" t="inlineStr">
         <is>
           <t>Long Island Builders and Construction</t>
         </is>
       </c>
-      <c r="Y36" s="4" t="inlineStr">
+      <c r="Y36" s="5" t="inlineStr">
         <is>
           <t>With Approved Time Extension</t>
         </is>
       </c>
-      <c r="Z36" s="4" t="n"/>
+      <c r="Z36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="5" t="n">
         <v>125833</v>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>Paruk ES</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Siay</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4" t="n">
+      <c r="H37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="5" t="n">
         <v>9316708.43</v>
       </c>
-      <c r="L37" s="4" t="n">
+      <c r="L37" s="5" t="n">
         <v>8213612.07</v>
       </c>
-      <c r="M37" s="4" t="inlineStr">
+      <c r="M37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="4" t="inlineStr">
+      <c r="N37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="5" t="inlineStr">
         <is>
           <t>September 24, 2024</t>
         </is>
       </c>
-      <c r="P37" s="4" t="inlineStr">
+      <c r="P37" s="5" t="inlineStr">
         <is>
           <t>March 19, 2025</t>
         </is>
       </c>
-      <c r="Q37" s="4" t="inlineStr">
+      <c r="Q37" s="5" t="inlineStr">
         <is>
           <t>ZSY-2024LMS-02</t>
         </is>
       </c>
-      <c r="R37" s="4" t="inlineStr">
+      <c r="R37" s="5" t="inlineStr">
         <is>
           <t>ZSY-2024LMS-02</t>
         </is>
       </c>
-      <c r="S37" s="4" t="inlineStr">
+      <c r="S37" s="5" t="inlineStr">
         <is>
           <t>November 22, 2023</t>
         </is>
       </c>
-      <c r="T37" s="4" t="inlineStr">
+      <c r="T37" s="5" t="inlineStr">
         <is>
           <t>November 29, 2023</t>
         </is>
       </c>
-      <c r="U37" s="4" t="inlineStr">
+      <c r="U37" s="5" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="V37" s="4" t="inlineStr">
+      <c r="V37" s="5" t="inlineStr">
         <is>
           <t>February 28, 2024</t>
         </is>
       </c>
-      <c r="W37" s="4" t="inlineStr">
+      <c r="W37" s="5" t="inlineStr">
         <is>
           <t>June 26, 2024</t>
         </is>
       </c>
-      <c r="X37" s="4" t="inlineStr">
+      <c r="X37" s="5" t="inlineStr">
         <is>
           <t>Long Island Builders and Construction</t>
         </is>
       </c>
-      <c r="Y37" s="4" t="inlineStr">
+      <c r="Y37" s="5" t="inlineStr">
         <is>
           <t>With Approved Time Extension due to manhauling of construction materials from barangay road to site area</t>
         </is>
       </c>
-      <c r="Z37" s="4" t="n"/>
+      <c r="Z37" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region IX/Region IX_LMS.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_LMS.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region IX/Region IX_LMS.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_LMS.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,3957 +453,4071 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="51" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="240" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="26" customWidth="1" min="14" max="14"/>
-    <col width="48" customWidth="1" min="15" max="15"/>
-    <col width="27" customWidth="1" min="16" max="16"/>
-    <col width="33" customWidth="1" min="17" max="17"/>
-    <col width="32" customWidth="1" min="18" max="18"/>
-    <col width="31" customWidth="1" min="19" max="19"/>
-    <col width="27" customWidth="1" min="20" max="20"/>
-    <col width="21" customWidth="1" min="21" max="21"/>
-    <col width="33" customWidth="1" min="22" max="22"/>
-    <col width="31" customWidth="1" min="23" max="23"/>
-    <col width="42" customWidth="1" min="24" max="24"/>
-    <col width="106" customWidth="1" min="25" max="25"/>
-    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="51" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="240" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="48" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="33" customWidth="1" min="18" max="18"/>
+    <col width="32" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="42" customWidth="1" min="25" max="25"/>
+    <col width="106" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Isabela City</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>305549</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Lampinigan National High School</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>CITY OF ISABELA (Capital)</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>19525553.37566482</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>19417116.63</v>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6" t="n">
         <v>44560</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="Q2" s="6" t="n">
         <v>44735</v>
       </c>
-      <c r="Q2" s="5" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>INFRA2021-01</t>
         </is>
       </c>
-      <c r="R2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>INFRA2021-01</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>July 4-11, 2021</t>
         </is>
       </c>
-      <c r="T2" s="5" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>July 12, 2021</t>
         </is>
       </c>
-      <c r="U2" s="5" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>July 26, 2021</t>
         </is>
       </c>
-      <c r="V2" s="5" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>July 29, 2021</t>
         </is>
       </c>
-      <c r="W2" s="5" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>August 3, 2021</t>
         </is>
       </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>2M CONSTRUCTION AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr"/>
-      <c r="Z2" s="7" t="n"/>
+      <c r="Z2" s="5" t="inlineStr"/>
+      <c r="AA2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>126155</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Camp Socorro</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>22006289</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="M3" s="5" t="n">
         <v>21998288.85</v>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6" t="n">
         <v>44534</v>
       </c>
-      <c r="P3" s="6" t="n">
+      <c r="Q3" s="6" t="n">
         <v>44685</v>
       </c>
-      <c r="Q3" s="5" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>06-0030-21</t>
         </is>
       </c>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>06-0030-21</t>
         </is>
       </c>
-      <c r="S3" s="6" t="n">
+      <c r="T3" s="6" t="n">
         <v>44379</v>
       </c>
-      <c r="T3" s="6" t="n">
+      <c r="U3" s="6" t="n">
         <v>44386</v>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="V3" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="V3" s="6" t="n">
+      <c r="W3" s="6" t="n">
         <v>44419</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="X3" s="6" t="n">
         <v>44429</v>
       </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Zamboanga 3VC CONSTRUCTION INCORPORATED </t>
         </is>
       </c>
-      <c r="Y3" s="5" t="inlineStr"/>
-      <c r="Z3" s="7" t="n"/>
+      <c r="Z3" s="5" t="inlineStr"/>
+      <c r="AA3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>303702</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Sitog NHS Ext - Dabiak</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>Katipunan</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OFONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>20686643.2610365</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="M4" s="5" t="n">
         <v>10204006.09</v>
       </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>44561</v>
+      <c r="O4" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>44561</v>
       </c>
-      <c r="Q4" s="5" t="inlineStr">
+      <c r="Q4" s="6" t="n">
+        <v>44561</v>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>CB 2021-023</t>
         </is>
       </c>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>CB 2021-023</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>July 1, 2021</t>
         </is>
       </c>
-      <c r="T4" s="5" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>July 9, 2021</t>
         </is>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>July 22, 2021</t>
         </is>
       </c>
-      <c r="V4" s="5" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>July 27, 2021</t>
         </is>
       </c>
-      <c r="W4" s="5" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>Aug. 4, 2021</t>
         </is>
       </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="inlineStr"/>
-      <c r="Z4" s="7" t="n"/>
+      <c r="Z4" s="5" t="inlineStr"/>
+      <c r="AA4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>303702</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Sitog NHS Ext - Dabiak</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Katipunan</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OFONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
         <v>10204006.09</v>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>44561</v>
+      <c r="O5" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>44561</v>
       </c>
-      <c r="Q5" s="5" t="inlineStr">
+      <c r="Q5" s="6" t="n">
+        <v>44561</v>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>CB 2021-023</t>
         </is>
       </c>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>CB 2021-023</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>July 1, 2021</t>
         </is>
       </c>
-      <c r="T5" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>July 9, 2021</t>
         </is>
       </c>
-      <c r="U5" s="5" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>July 22, 2021</t>
         </is>
       </c>
-      <c r="V5" s="5" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>July 27, 2021</t>
         </is>
       </c>
-      <c r="W5" s="5" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>Aug. 4, 2021</t>
         </is>
       </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="inlineStr"/>
-      <c r="Z5" s="7" t="n"/>
+      <c r="Z5" s="5" t="inlineStr"/>
+      <c r="AA5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>124885</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Bag-Ong Mandaue IPS</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>AURORA</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>18695810.12654223</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="M6" s="5" t="n">
         <v>18684761.34</v>
       </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6" t="n">
         <v>44561</v>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="Q6" s="6" t="n">
         <v>44622</v>
       </c>
-      <c r="Q6" s="5" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">ZDS- 20- LMS-01 </t>
         </is>
       </c>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">ZDS- 20- LMS-01 </t>
         </is>
       </c>
-      <c r="S6" s="6" t="n">
+      <c r="T6" s="6" t="n">
         <v>44385</v>
       </c>
-      <c r="T6" s="6" t="n">
+      <c r="U6" s="6" t="n">
         <v>44393</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="V6" s="6" t="n">
         <v>44405</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="W6" s="6" t="n">
         <v>44413</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="X6" s="6" t="n">
         <v>44419</v>
       </c>
-      <c r="X6" s="5" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>GENETIAN BUILDERS AND ENTERPRISES INC</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr"/>
-      <c r="Z6" s="7" t="n"/>
+      <c r="Z6" s="5" t="inlineStr"/>
+      <c r="AA6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>125746</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>San Jose PS</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>OLUTANGA</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>19309086.9083</v>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="M7" s="5" t="n">
         <v>19290632.4</v>
       </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="O7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>On-going Suspension Order since March 02, 2022</t>
         </is>
       </c>
-      <c r="P7" s="5" t="inlineStr">
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>ZSY-2020LMS-01</t>
         </is>
       </c>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>ZSY-2020LMS-01</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>June 29, 2021</t>
         </is>
       </c>
-      <c r="T7" s="5" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>July 17, 2021</t>
         </is>
       </c>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>July 19, 2021</t>
         </is>
       </c>
-      <c r="V7" s="6" t="n">
+      <c r="W7" s="6" t="n">
         <v>44407</v>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="X7" s="6" t="n">
         <v>44434</v>
       </c>
-      <c r="X7" s="5" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>CPAN Engineering &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>Change Order (Water Pump Solar Panel) for C.O. approval</t>
         </is>
       </c>
-      <c r="Z7" s="7" t="n"/>
+      <c r="AA7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>135</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Isabela City</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>133031</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Caro ES</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>CITY OF ISABELA (Capital)</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF  (1) ONE STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>10045807.57199249</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="O8" s="5" t="n">
         <v>0.18</v>
       </c>
-      <c r="O8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>0</v>
       </c>
       <c r="R8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="5" t="inlineStr">
+      <c r="S8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T8" s="5" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" s="5" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V8" s="5" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W8" s="5" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>PRISMOIDAL CONSRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE MANAGED</t>
         </is>
       </c>
-      <c r="Z8" s="7" t="n"/>
+      <c r="AA8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>136</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>126129</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Sapa Dulian ES</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND  OF DRILLING FOR DEEPWELL  WATER SYSTEM &amp; SOLAR PUMP</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>21293479.9976114</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="M9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="O9" s="5" t="n">
         <v>0.34</v>
       </c>
-      <c r="O9" s="5" t="inlineStr">
+      <c r="P9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P9" s="5" t="inlineStr">
+      <c r="Q9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>0</v>
       </c>
       <c r="R9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="5" t="inlineStr">
+      <c r="S9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T9" s="5" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" s="5" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V9" s="5" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W9" s="5" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X9" s="5" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>PRISMOIDAL CONSRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE MANAGED</t>
         </is>
       </c>
-      <c r="Z9" s="7" t="n"/>
+      <c r="AA9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>137</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>126129</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Sapa Dulian ES</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND  OF DRILLING FOR DEEPWELL  WATER SYSTEM &amp; SOLAR PUMP</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>6520</v>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="M10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="O10" s="5" t="n">
         <v>0.34</v>
       </c>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="P10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P10" s="5" t="inlineStr">
+      <c r="Q10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <v>0</v>
       </c>
       <c r="R10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="S10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T10" s="5" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U10" s="5" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V10" s="5" t="inlineStr">
+      <c r="W10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W10" s="5" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X10" s="5" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>PRISMOIDAL CONSRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE MANAGED</t>
         </is>
       </c>
-      <c r="Z10" s="7" t="n"/>
+      <c r="AA10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>138</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>195529</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Basak ES</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>SIAYAN</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>10394988.93971361</v>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="O11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="P11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P11" s="5" t="inlineStr">
+      <c r="Q11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>0</v>
       </c>
       <c r="R11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="5" t="inlineStr">
+      <c r="S11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T11" s="5" t="inlineStr">
+      <c r="U11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" s="5" t="inlineStr">
+      <c r="V11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V11" s="5" t="inlineStr">
+      <c r="W11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W11" s="5" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X11" s="5" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>PRISMOIDAL CONSRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE MANAGED</t>
         </is>
       </c>
-      <c r="Z11" s="7" t="n"/>
+      <c r="AA11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>139</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>300000</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Digon National High School</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>MARGOSATUBIG</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>18679356.24</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="M12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="5" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>ABANDONED</t>
         </is>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="O12" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="P12" s="6" t="n">
         <v>44802</v>
       </c>
-      <c r="P12" s="5" t="inlineStr">
+      <c r="Q12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>0</v>
       </c>
       <c r="R12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S12" s="5" t="inlineStr">
+      <c r="S12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T12" s="5" t="inlineStr">
+      <c r="U12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U12" s="5" t="inlineStr">
+      <c r="V12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V12" s="5" t="inlineStr">
+      <c r="W12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W12" s="6" t="n">
+      <c r="X12" s="6" t="n">
         <v>44712</v>
       </c>
-      <c r="X12" s="5" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>PRISMOIDAL CONSRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Y12" s="5" t="inlineStr">
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE MANAGED</t>
         </is>
       </c>
-      <c r="Z12" s="7" t="n"/>
+      <c r="AA12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>140</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>125639</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Datagan ES</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>Kabasalan</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>16697503.52</v>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="M13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="O13" s="5" t="n">
         <v>0.38</v>
       </c>
-      <c r="O13" s="5" t="inlineStr">
+      <c r="P13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P13" s="5" t="inlineStr">
+      <c r="Q13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>0</v>
       </c>
       <c r="R13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S13" s="5" t="inlineStr">
+      <c r="S13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="T13" s="5" t="inlineStr">
+      <c r="U13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" s="5" t="inlineStr">
+      <c r="V13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V13" s="5" t="inlineStr">
+      <c r="W13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W13" s="5" t="inlineStr">
+      <c r="X13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X13" s="5" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>PRISMOIDAL CONSRUCTION CORPORATION</t>
         </is>
       </c>
-      <c r="Y13" s="5" t="inlineStr">
+      <c r="Z13" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE MANAGED</t>
         </is>
       </c>
-      <c r="Z13" s="7" t="n"/>
+      <c r="AA13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>237</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>124538</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Head Tipan ES</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>15387438.1528</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="M14" s="5" t="n">
         <v>15899497.92</v>
       </c>
-      <c r="M14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="6" t="n">
-        <v>45026</v>
+      <c r="O14" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>45026</v>
       </c>
-      <c r="Q14" s="5" t="inlineStr">
+      <c r="Q14" s="6" t="n">
+        <v>45026</v>
+      </c>
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>2022-055-CBZN</t>
         </is>
       </c>
-      <c r="R14" s="5" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>CB-2022-039</t>
         </is>
       </c>
-      <c r="S14" s="6" t="n">
+      <c r="T14" s="6" t="n">
         <v>44862</v>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="U14" s="6" t="n">
         <v>44872</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="V14" s="6" t="n">
         <v>44883</v>
       </c>
-      <c r="V14" s="6" t="n">
+      <c r="W14" s="6" t="n">
         <v>44896</v>
       </c>
-      <c r="W14" s="6" t="n">
+      <c r="X14" s="6" t="n">
         <v>44902</v>
       </c>
-      <c r="X14" s="5" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y14" s="5" t="inlineStr">
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="Z14" s="7" t="n"/>
+      <c r="AA14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>238</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>124609</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Nilabo ES</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>RIZAL</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>21731277.28767706</v>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="M15" s="5" t="n">
         <v>22131576</v>
       </c>
-      <c r="M15" s="5" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6" t="n">
         <v>44926</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="Q15" s="6" t="n">
         <v>44977</v>
       </c>
-      <c r="Q15" s="5" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>LMS2020-RIX-ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="R15" s="5" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-RIX-ZDN-01</t>
         </is>
       </c>
-      <c r="S15" s="6" t="n">
+      <c r="T15" s="6" t="n">
         <v>44655</v>
       </c>
-      <c r="T15" s="6" t="n">
+      <c r="U15" s="6" t="n">
         <v>44664</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="V15" s="6" t="n">
         <v>44676</v>
       </c>
-      <c r="V15" s="6" t="n">
+      <c r="W15" s="6" t="n">
         <v>44685</v>
       </c>
-      <c r="W15" s="6" t="n">
+      <c r="X15" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X15" s="5" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Y15" s="5" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="Z15" s="7" t="n"/>
+      <c r="AA15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>239</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>125086</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>INIGO G. MERCADO PS</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>JOSEFINA</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>18280842.6521</v>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="M16" s="5" t="n">
         <v>17133688.9</v>
       </c>
-      <c r="M16" s="5" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6" t="n">
         <v>44921</v>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="Q16" s="6" t="n">
         <v>44914</v>
       </c>
-      <c r="Q16" s="5" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>ZDS-22-LMS-01</t>
         </is>
       </c>
-      <c r="R16" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>ZDS-22-LMS-01</t>
         </is>
       </c>
-      <c r="S16" s="6" t="n">
+      <c r="T16" s="6" t="n">
         <v>45021</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="U16" s="6" t="n">
         <v>45030</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="V16" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="V16" s="6" t="n">
+      <c r="W16" s="6" t="n">
         <v>45076</v>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="X16" s="6" t="n">
         <v>45084</v>
       </c>
-      <c r="X16" s="5" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>GENETIAN BUILDERS AND ENTERPRISES INC</t>
         </is>
       </c>
-      <c r="Y16" s="5" t="inlineStr"/>
-      <c r="Z16" s="7" t="n"/>
+      <c r="Z16" s="5" t="inlineStr"/>
+      <c r="AA16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>125845</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Bualan ES</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>TALUSAN</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) UNIT - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>7551146.3957</v>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="M17" s="5" t="n">
         <v>25295175.54</v>
       </c>
-      <c r="M17" s="5" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6" t="n">
         <v>45590</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="Q17" s="6" t="n">
         <v>45667</v>
       </c>
-      <c r="Q17" s="5" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>2023-024-CBZN</t>
         </is>
       </c>
-      <c r="R17" s="5" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>CB2023-023</t>
         </is>
       </c>
-      <c r="S17" s="5" t="inlineStr">
+      <c r="T17" s="5" t="inlineStr">
         <is>
           <t>Nov. 14, 2023</t>
         </is>
       </c>
-      <c r="T17" s="5" t="inlineStr">
+      <c r="U17" s="5" t="inlineStr">
         <is>
           <t>Nov. 24, 2023</t>
         </is>
       </c>
-      <c r="U17" s="5" t="inlineStr">
+      <c r="V17" s="5" t="inlineStr">
         <is>
           <t>Dec. 07, 2023</t>
         </is>
       </c>
-      <c r="V17" s="5" t="inlineStr">
+      <c r="W17" s="5" t="inlineStr">
         <is>
           <t>Dec. 18, 2023</t>
         </is>
       </c>
-      <c r="W17" s="5" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t>Dec. 28, 2023</t>
         </is>
       </c>
-      <c r="X17" s="5" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y17" s="5" t="n">
+      <c r="Z17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z17" s="7" t="n"/>
+      <c r="AA17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>241</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>303871</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Kasigpitan NHS</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>TALUSAN</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) UNIT - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>7571189.8457</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="M18" s="5" t="n">
         <v>18787999.57</v>
       </c>
-      <c r="M18" s="5" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6" t="n">
         <v>45590</v>
       </c>
-      <c r="P18" s="6" t="n">
+      <c r="Q18" s="6" t="n">
         <v>45667</v>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-01</t>
         </is>
       </c>
-      <c r="R18" s="5" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-01</t>
         </is>
       </c>
-      <c r="S18" s="6" t="n">
+      <c r="T18" s="6" t="n">
         <v>45029</v>
       </c>
-      <c r="T18" s="6" t="n">
+      <c r="U18" s="6" t="n">
         <v>45042</v>
       </c>
-      <c r="U18" s="6" t="n">
+      <c r="V18" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V18" s="6" t="n">
+      <c r="W18" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="W18" s="6" t="n">
+      <c r="X18" s="6" t="n">
         <v>45077</v>
       </c>
-      <c r="X18" s="5" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>Genetian Builders &amp; Enterprises Inc.</t>
         </is>
       </c>
-      <c r="Y18" s="5" t="inlineStr"/>
-      <c r="Z18" s="7" t="n"/>
+      <c r="Z18" s="5" t="inlineStr"/>
+      <c r="AA18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>242</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>314308</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Laparay NHS</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>TALUSAN</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>11431953.6095</v>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="M19" s="5" t="n">
         <v>18086919.56</v>
       </c>
-      <c r="M19" s="5" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6" t="n">
         <v>45234</v>
       </c>
-      <c r="P19" s="6" t="n">
+      <c r="Q19" s="6" t="n">
         <v>45415</v>
       </c>
-      <c r="Q19" s="5" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-02</t>
         </is>
       </c>
-      <c r="R19" s="5" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-02</t>
         </is>
       </c>
-      <c r="S19" s="6" t="n">
+      <c r="T19" s="6" t="n">
         <v>45029</v>
       </c>
-      <c r="T19" s="6" t="n">
+      <c r="U19" s="6" t="n">
         <v>45042</v>
       </c>
-      <c r="U19" s="6" t="n">
+      <c r="V19" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V19" s="6" t="n">
+      <c r="W19" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="W19" s="6" t="n">
+      <c r="X19" s="6" t="n">
         <v>45077</v>
       </c>
-      <c r="X19" s="5" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>Genetian Builders &amp; Enterprises Inc.</t>
         </is>
       </c>
-      <c r="Y19" s="5" t="inlineStr"/>
-      <c r="Z19" s="7" t="n"/>
+      <c r="Z19" s="5" t="inlineStr"/>
+      <c r="AA19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>243</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>125850</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Mahayahay ES</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>TALUSAN</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) UNIT - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>7540541.3957</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="M20" s="5" t="n">
         <v>11154681.24</v>
       </c>
-      <c r="M20" s="5" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6" t="n">
         <v>45590</v>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="Q20" s="6" t="n">
         <v>45667</v>
       </c>
-      <c r="Q20" s="5" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>ZS-2023-LMS-01</t>
         </is>
       </c>
-      <c r="R20" s="5" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>ZS-2023-LMS-01</t>
         </is>
       </c>
-      <c r="S20" s="6" t="n">
+      <c r="T20" s="6" t="n">
         <v>45020</v>
       </c>
-      <c r="T20" s="6" t="n">
+      <c r="U20" s="6" t="n">
         <v>45033</v>
       </c>
-      <c r="U20" s="6" t="n">
+      <c r="V20" s="6" t="n">
         <v>45044</v>
       </c>
-      <c r="V20" s="6" t="n">
+      <c r="W20" s="6" t="n">
         <v>45100</v>
       </c>
-      <c r="W20" s="6" t="n">
+      <c r="X20" s="6" t="n">
         <v>45114</v>
       </c>
-      <c r="X20" s="5" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>Shameem Construction</t>
         </is>
       </c>
-      <c r="Y20" s="5" t="inlineStr">
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Z20" s="7" t="n"/>
+      <c r="AA20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>321</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>303714</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Mutia NHS Annex - Tubak</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHT AND SOLAR PV ENERGY SYSTEM </t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>17166895.91</v>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="M21" s="5" t="n">
         <v>16993668.9</v>
       </c>
-      <c r="M21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6" t="n">
+      <c r="O21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6" t="n">
         <v>45245</v>
       </c>
-      <c r="P21" s="6" t="n">
+      <c r="Q21" s="6" t="n">
         <v>45290</v>
       </c>
-      <c r="Q21" s="5" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>2023-8-CBZN</t>
         </is>
       </c>
-      <c r="R21" s="5" t="inlineStr">
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>CB-2023-008</t>
         </is>
       </c>
-      <c r="S21" s="6" t="n">
+      <c r="T21" s="6" t="n">
         <v>45021</v>
       </c>
-      <c r="T21" s="6" t="n">
+      <c r="U21" s="6" t="n">
         <v>45030</v>
       </c>
-      <c r="U21" s="6" t="n">
+      <c r="V21" s="6" t="n">
         <v>45043</v>
       </c>
-      <c r="V21" s="6" t="n">
+      <c r="W21" s="6" t="n">
         <v>45076</v>
       </c>
-      <c r="W21" s="6" t="n">
+      <c r="X21" s="6" t="n">
         <v>45084</v>
       </c>
-      <c r="X21" s="5" t="inlineStr">
+      <c r="Y21" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y21" s="5" t="inlineStr"/>
-      <c r="Z21" s="7" t="n"/>
+      <c r="Z21" s="5" t="inlineStr"/>
+      <c r="AA21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>322</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>124547</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Adante ES</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>PIÑAN (NEW PIÑAN)</t>
         </is>
       </c>
-      <c r="G22" s="5" t="inlineStr">
+      <c r="H22" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHT, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>25577846.13</v>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="M22" s="5" t="n">
         <v>25295175.54</v>
       </c>
-      <c r="M22" s="5" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="6" t="n">
+      <c r="O22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="6" t="n">
         <v>45473</v>
       </c>
-      <c r="P22" s="6" t="n">
+      <c r="Q22" s="6" t="n">
         <v>45621</v>
       </c>
-      <c r="Q22" s="5" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>2023-024-CBZN</t>
         </is>
       </c>
-      <c r="R22" s="5" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>CB2023-023</t>
         </is>
       </c>
-      <c r="S22" s="5" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>Nov. 14, 2023</t>
         </is>
       </c>
-      <c r="T22" s="5" t="inlineStr">
+      <c r="U22" s="5" t="inlineStr">
         <is>
           <t>Nov. 24, 2023</t>
         </is>
       </c>
-      <c r="U22" s="5" t="inlineStr">
+      <c r="V22" s="5" t="inlineStr">
         <is>
           <t>Dec. 07, 2023</t>
         </is>
       </c>
-      <c r="V22" s="5" t="inlineStr">
+      <c r="W22" s="5" t="inlineStr">
         <is>
           <t>Dec. 18, 2023</t>
         </is>
       </c>
-      <c r="W22" s="5" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>Dec. 28, 2023</t>
         </is>
       </c>
-      <c r="X22" s="5" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y22" s="5" t="inlineStr"/>
-      <c r="Z22" s="7" t="n"/>
+      <c r="Z22" s="5" t="inlineStr"/>
+      <c r="AA22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>323</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>125307</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Bag-ong Opon Elementary School</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>RAMON MAGSAYSAY (LIARGO)</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>19077138.92</v>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="M23" s="5" t="n">
         <v>18787999.57</v>
       </c>
-      <c r="M23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="6" t="n">
         <v>45234</v>
       </c>
-      <c r="P23" s="6" t="n">
+      <c r="Q23" s="6" t="n">
         <v>45274</v>
       </c>
-      <c r="Q23" s="5" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-01</t>
         </is>
       </c>
-      <c r="R23" s="5" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-01</t>
         </is>
       </c>
-      <c r="S23" s="6" t="n">
+      <c r="T23" s="6" t="n">
         <v>45029</v>
       </c>
-      <c r="T23" s="6" t="n">
+      <c r="U23" s="6" t="n">
         <v>45042</v>
       </c>
-      <c r="U23" s="6" t="n">
+      <c r="V23" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V23" s="6" t="n">
+      <c r="W23" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="W23" s="6" t="n">
+      <c r="X23" s="6" t="n">
         <v>45077</v>
       </c>
-      <c r="X23" s="5" t="inlineStr">
+      <c r="Y23" s="5" t="inlineStr">
         <is>
           <t>GENETIAN BUILDERS AND ENTERPRISES INC</t>
         </is>
       </c>
-      <c r="Y23" s="5" t="inlineStr"/>
-      <c r="Z23" s="7" t="n"/>
+      <c r="Z23" s="5" t="inlineStr"/>
+      <c r="AA23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>324</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>124940</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Buburay ES</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>DIMATALING</t>
         </is>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="H24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>18381376.01</v>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="M24" s="5" t="n">
         <v>18086919.56</v>
       </c>
-      <c r="M24" s="5" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6" t="n">
+      <c r="O24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="n">
         <v>45234</v>
       </c>
-      <c r="P24" s="6" t="n">
+      <c r="Q24" s="6" t="n">
         <v>45260</v>
       </c>
-      <c r="Q24" s="5" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-02</t>
         </is>
       </c>
-      <c r="R24" s="5" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-LMS-02</t>
         </is>
       </c>
-      <c r="S24" s="6" t="n">
+      <c r="T24" s="6" t="n">
         <v>45029</v>
       </c>
-      <c r="T24" s="6" t="n">
+      <c r="U24" s="6" t="n">
         <v>45042</v>
       </c>
-      <c r="U24" s="6" t="n">
+      <c r="V24" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V24" s="6" t="n">
+      <c r="W24" s="6" t="n">
         <v>45068</v>
       </c>
-      <c r="W24" s="6" t="n">
+      <c r="X24" s="6" t="n">
         <v>45077</v>
       </c>
-      <c r="X24" s="5" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>GENETIAN BUILDERS AND ENTERPRISES INC</t>
         </is>
       </c>
-      <c r="Y24" s="5" t="inlineStr"/>
-      <c r="Z24" s="7" t="n"/>
+      <c r="Z24" s="5" t="inlineStr"/>
+      <c r="AA24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>325</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>125854</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Talusan CES</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>TALUSAN</t>
         </is>
       </c>
-      <c r="G25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>13320323.48</v>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="M25" s="5" t="n">
         <v>11154681.24</v>
       </c>
-      <c r="M25" s="5" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6" t="n">
+      <c r="O25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="6" t="n">
         <v>45234</v>
       </c>
-      <c r="P25" s="5" t="inlineStr">
+      <c r="Q25" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q25" s="5" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>ZS-2023-LMS-01</t>
         </is>
       </c>
-      <c r="R25" s="5" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>ZS-2023-LMS-01</t>
         </is>
       </c>
-      <c r="S25" s="6" t="n">
+      <c r="T25" s="6" t="n">
         <v>45020</v>
       </c>
-      <c r="T25" s="6" t="n">
+      <c r="U25" s="6" t="n">
         <v>45033</v>
       </c>
-      <c r="U25" s="6" t="n">
+      <c r="V25" s="6" t="n">
         <v>45044</v>
       </c>
-      <c r="V25" s="6" t="n">
+      <c r="W25" s="6" t="n">
         <v>45100</v>
       </c>
-      <c r="W25" s="6" t="n">
+      <c r="X25" s="6" t="n">
         <v>45114</v>
       </c>
-      <c r="X25" s="5" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>Shameem Construction</t>
         </is>
       </c>
-      <c r="Y25" s="5" t="inlineStr"/>
-      <c r="Z25" s="7" t="n"/>
+      <c r="Z25" s="5" t="inlineStr"/>
+      <c r="AA25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>442</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>125928</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Daro Elementary School</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITs ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHT, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="L26" s="5" t="n">
         <v>22816847.47</v>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="M26" s="5" t="n">
         <v>22512075.6</v>
       </c>
-      <c r="M26" s="5" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N26" s="5" t="n">
+      <c r="O26" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="O26" s="5" t="inlineStr">
+      <c r="P26" s="5" t="inlineStr">
         <is>
           <t>November 14, 2024</t>
         </is>
       </c>
-      <c r="P26" s="5" t="inlineStr">
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q26" s="5" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-004</t>
         </is>
       </c>
-      <c r="R26" s="5" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-004</t>
         </is>
       </c>
-      <c r="S26" s="5" t="inlineStr">
+      <c r="T26" s="5" t="inlineStr">
         <is>
           <t>November 14, 2023</t>
         </is>
       </c>
-      <c r="T26" s="5" t="inlineStr">
+      <c r="U26" s="5" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="U26" s="5" t="inlineStr">
+      <c r="V26" s="5" t="inlineStr">
         <is>
           <t>December 07, 2023</t>
         </is>
       </c>
-      <c r="V26" s="5" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr">
         <is>
           <t>May 06, 2024</t>
         </is>
       </c>
-      <c r="W26" s="5" t="inlineStr">
+      <c r="X26" s="5" t="inlineStr">
         <is>
           <t>May 17, 2024</t>
         </is>
       </c>
-      <c r="X26" s="5" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y26" s="5" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Z26" s="7" t="n"/>
+      <c r="AA26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>443</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Isabela City</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>502129</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Badjao Floating Integrated School</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>CITY OF ISABELA (Capital)</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>19205159.17</v>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="M27" s="5" t="n">
         <v>17785991.82</v>
       </c>
-      <c r="M27" s="5" t="inlineStr">
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N27" s="5" t="n">
+      <c r="O27" s="5" t="n">
         <v>0.58</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="P27" s="6" t="n">
         <v>45835</v>
       </c>
-      <c r="P27" s="5" t="inlineStr">
+      <c r="Q27" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q27" s="5" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>INFRAEPA2024-01</t>
         </is>
       </c>
-      <c r="R27" s="5" t="inlineStr">
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S27" s="5" t="inlineStr">
+      <c r="T27" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="T27" s="6" t="n">
+      <c r="U27" s="6" t="n">
         <v>45611</v>
       </c>
-      <c r="U27" s="6" t="n">
+      <c r="V27" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="V27" s="6" t="n">
+      <c r="W27" s="6" t="n">
         <v>45428</v>
       </c>
-      <c r="W27" s="6" t="n">
+      <c r="X27" s="6" t="n">
         <v>45537</v>
       </c>
-      <c r="X27" s="5" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>2M CONSTRUCTION AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y27" s="5" t="inlineStr">
+      <c r="Z27" s="5" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="Z27" s="7" t="n"/>
+      <c r="AA27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>444</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Pagadian City</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>198503</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Bentud Pinukis Penintulan Nu Piksalabukan Subanen</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>PAGADIAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H28" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="L28" s="5" t="n">
         <v>22198056.48</v>
       </c>
-      <c r="L28" s="5" t="n">
+      <c r="M28" s="5" t="n">
         <v>21927158.04</v>
       </c>
-      <c r="M28" s="5" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="5" t="inlineStr">
+      <c r="O28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>December 04, 2024</t>
         </is>
       </c>
-      <c r="P28" s="5" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr">
         <is>
           <t>December 04, 2024</t>
         </is>
       </c>
-      <c r="Q28" s="5" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-RIX-PAG-01</t>
         </is>
       </c>
-      <c r="R28" s="5" t="inlineStr">
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-RIX-PAG-01</t>
         </is>
       </c>
-      <c r="S28" s="5" t="inlineStr">
+      <c r="T28" s="5" t="inlineStr">
         <is>
           <t>November 13, 2023</t>
         </is>
       </c>
-      <c r="T28" s="5" t="inlineStr">
+      <c r="U28" s="5" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="U28" s="5" t="inlineStr">
+      <c r="V28" s="5" t="inlineStr">
         <is>
           <t>December 04, 2023</t>
         </is>
       </c>
-      <c r="V28" s="5" t="inlineStr">
+      <c r="W28" s="5" t="inlineStr">
         <is>
           <t>December 11, 2023</t>
         </is>
       </c>
-      <c r="W28" s="5" t="inlineStr">
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t>June 03, 2024</t>
         </is>
       </c>
-      <c r="X28" s="5" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>GENETIAN BUILDERS &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y28" s="5" t="inlineStr">
+      <c r="Z28" s="5" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="Z28" s="7" t="n"/>
+      <c r="AA28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>445</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>126168</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Pasilmanta ES</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="L29" s="5" t="n">
         <v>25252525.25</v>
       </c>
-      <c r="L29" s="5" t="n">
+      <c r="M29" s="5" t="n">
         <v>24974606.93</v>
       </c>
-      <c r="M29" s="5" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="5" t="inlineStr">
+      <c r="O29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5" t="inlineStr">
         <is>
           <t>November 30, 2024</t>
         </is>
       </c>
-      <c r="P29" s="6" t="n">
+      <c r="Q29" s="6" t="n">
         <v>45701</v>
       </c>
-      <c r="Q29" s="5" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 -RIX- ZAMBO CITY - 02</t>
         </is>
       </c>
-      <c r="R29" s="5" t="inlineStr">
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 -RIX- ZAMBO CITY - 02</t>
         </is>
       </c>
-      <c r="S29" s="5" t="inlineStr">
+      <c r="T29" s="5" t="inlineStr">
         <is>
           <t>October 30,2023</t>
         </is>
       </c>
-      <c r="T29" s="5" t="inlineStr">
+      <c r="U29" s="5" t="inlineStr">
         <is>
           <t>November 7, 2023</t>
         </is>
       </c>
-      <c r="U29" s="5" t="inlineStr">
+      <c r="V29" s="5" t="inlineStr">
         <is>
           <t>November 20,2023</t>
         </is>
       </c>
-      <c r="V29" s="5" t="inlineStr">
+      <c r="W29" s="5" t="inlineStr">
         <is>
           <t>May 13,2024</t>
         </is>
       </c>
-      <c r="W29" s="5" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>June 03, 2024</t>
         </is>
       </c>
-      <c r="X29" s="5" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA 3VC CONSTRUCTION INC,</t>
         </is>
       </c>
-      <c r="Y29" s="5" t="inlineStr">
+      <c r="Z29" s="5" t="inlineStr">
         <is>
           <t>With Approved Time Extension</t>
         </is>
       </c>
-      <c r="Z29" s="7" t="n"/>
+      <c r="AA29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>446</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>126133</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Simanta ES</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H30" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="L30" s="5" t="n">
         <v>25252525.25</v>
       </c>
-      <c r="L30" s="5" t="n">
+      <c r="M30" s="5" t="n">
         <v>24988205.79</v>
       </c>
-      <c r="M30" s="5" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="5" t="inlineStr">
+      <c r="O30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="5" t="inlineStr">
         <is>
           <t>November 30, 2024</t>
         </is>
       </c>
-      <c r="P30" s="6" t="n">
+      <c r="Q30" s="6" t="n">
         <v>45698</v>
       </c>
-      <c r="Q30" s="5" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 -RIX- ZAMBO CITY - 01</t>
         </is>
       </c>
-      <c r="R30" s="5" t="inlineStr">
+      <c r="S30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 -RIX- ZAMBO CITY - 01</t>
         </is>
       </c>
-      <c r="S30" s="5" t="inlineStr">
+      <c r="T30" s="5" t="inlineStr">
         <is>
           <t>October 30,2023</t>
         </is>
       </c>
-      <c r="T30" s="5" t="inlineStr">
+      <c r="U30" s="5" t="inlineStr">
         <is>
           <t>November 7, 2023</t>
         </is>
       </c>
-      <c r="U30" s="5" t="inlineStr">
+      <c r="V30" s="5" t="inlineStr">
         <is>
           <t>November 20,2023</t>
         </is>
       </c>
-      <c r="V30" s="5" t="inlineStr">
+      <c r="W30" s="5" t="inlineStr">
         <is>
           <t>May 13,2024</t>
         </is>
       </c>
-      <c r="W30" s="5" t="inlineStr">
+      <c r="X30" s="5" t="inlineStr">
         <is>
           <t>June 03, 2024</t>
         </is>
       </c>
-      <c r="X30" s="5" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA 3VC CONSTRUCTION INC,</t>
         </is>
       </c>
-      <c r="Y30" s="5" t="inlineStr">
+      <c r="Z30" s="5" t="inlineStr">
         <is>
           <t>With Approved Time Extension</t>
         </is>
       </c>
-      <c r="Z30" s="7" t="n"/>
+      <c r="AA30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>447</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>126167</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Panganak ES</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H31" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="L31" s="5" t="n">
         <v>25252525.25</v>
       </c>
-      <c r="L31" s="5" t="n">
+      <c r="M31" s="5" t="n">
         <v>24980749.43</v>
       </c>
-      <c r="M31" s="5" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="5" t="inlineStr">
+      <c r="O31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="5" t="inlineStr">
         <is>
           <t>November 30, 2024</t>
         </is>
       </c>
-      <c r="P31" s="6" t="n">
+      <c r="Q31" s="6" t="n">
         <v>45805</v>
       </c>
-      <c r="Q31" s="5" t="inlineStr">
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 -RIX- ZAMBO CITY - 03</t>
         </is>
       </c>
-      <c r="R31" s="5" t="inlineStr">
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 -RIX- ZAMBO CITY - 03</t>
         </is>
       </c>
-      <c r="S31" s="5" t="inlineStr">
+      <c r="T31" s="5" t="inlineStr">
         <is>
           <t>October 30,2023</t>
         </is>
       </c>
-      <c r="T31" s="5" t="inlineStr">
+      <c r="U31" s="5" t="inlineStr">
         <is>
           <t>November 7, 2023</t>
         </is>
       </c>
-      <c r="U31" s="5" t="inlineStr">
+      <c r="V31" s="5" t="inlineStr">
         <is>
           <t>November 20,2023</t>
         </is>
       </c>
-      <c r="V31" s="5" t="inlineStr">
+      <c r="W31" s="5" t="inlineStr">
         <is>
           <t>May 13,2024</t>
         </is>
       </c>
-      <c r="W31" s="5" t="inlineStr">
+      <c r="X31" s="5" t="inlineStr">
         <is>
           <t>June 03, 2024</t>
         </is>
       </c>
-      <c r="X31" s="5" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA 3VC CONSTRUCTION INC,</t>
         </is>
       </c>
-      <c r="Y31" s="5" t="inlineStr">
+      <c r="Z31" s="5" t="inlineStr">
         <is>
           <t>With Approved Time Extension</t>
         </is>
       </c>
-      <c r="Z31" s="7" t="n"/>
+      <c r="AA31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="5" t="n">
+        <v>448</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="E32" s="5" t="n">
         <v>124673</v>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>Tinago ES</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>SERGIO OSMEÑA SR.</t>
         </is>
       </c>
-      <c r="G32" s="5" t="inlineStr">
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H32" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHT, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="L32" s="5" t="n">
         <v>24985083.83</v>
       </c>
-      <c r="L32" s="5" t="n">
+      <c r="M32" s="5" t="n">
         <v>25698497.43</v>
       </c>
-      <c r="M32" s="5" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="5" t="inlineStr">
+      <c r="O32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="5" t="inlineStr">
         <is>
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="P32" s="6" t="n">
+      <c r="Q32" s="6" t="n">
         <v>45595</v>
       </c>
-      <c r="Q32" s="5" t="inlineStr">
+      <c r="R32" s="5" t="inlineStr">
         <is>
           <t>2024-005-CBZN</t>
         </is>
       </c>
-      <c r="R32" s="5" t="inlineStr">
+      <c r="S32" s="5" t="inlineStr">
         <is>
           <t>CB-2024-018</t>
         </is>
       </c>
-      <c r="S32" s="5" t="inlineStr">
+      <c r="T32" s="5" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="T32" s="5" t="inlineStr">
+      <c r="U32" s="5" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="U32" s="5" t="inlineStr">
+      <c r="V32" s="5" t="inlineStr">
         <is>
           <t>December 07, 2023</t>
         </is>
       </c>
-      <c r="V32" s="5" t="inlineStr">
+      <c r="W32" s="5" t="inlineStr">
         <is>
           <t>December 22, 2023</t>
         </is>
       </c>
-      <c r="W32" s="5" t="inlineStr">
+      <c r="X32" s="5" t="inlineStr">
         <is>
           <t>May 20, 2024</t>
         </is>
       </c>
-      <c r="X32" s="5" t="inlineStr">
+      <c r="Y32" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y32" s="5" t="inlineStr"/>
-      <c r="Z32" s="7" t="n"/>
+      <c r="Z32" s="5" t="inlineStr"/>
+      <c r="AA32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="5" t="n">
+        <v>449</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="E33" s="5" t="n">
         <v>303702</v>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>SITOG NHS - SEROAN EXT.</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>KATIPUNAN</t>
         </is>
       </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="H33" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H33" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHT, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="L33" s="5" t="n">
         <v>24985434.88</v>
       </c>
-      <c r="L33" s="5" t="n">
+      <c r="M33" s="5" t="n">
         <v>24704050.49</v>
       </c>
-      <c r="M33" s="5" t="inlineStr">
+      <c r="N33" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="5" t="inlineStr">
+      <c r="O33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="5" t="inlineStr">
         <is>
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="P33" s="6" t="n">
+      <c r="Q33" s="6" t="n">
         <v>45595</v>
       </c>
-      <c r="Q33" s="5" t="inlineStr">
+      <c r="R33" s="5" t="inlineStr">
         <is>
           <t>2024-006-CBZN</t>
         </is>
       </c>
-      <c r="R33" s="5" t="inlineStr">
+      <c r="S33" s="5" t="inlineStr">
         <is>
           <t>CB-2024-019</t>
         </is>
       </c>
-      <c r="S33" s="5" t="inlineStr">
+      <c r="T33" s="5" t="inlineStr">
         <is>
           <t>November 21, 2023</t>
         </is>
       </c>
-      <c r="T33" s="5" t="inlineStr">
+      <c r="U33" s="5" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="U33" s="5" t="inlineStr">
+      <c r="V33" s="5" t="inlineStr">
         <is>
           <t>December 07, 2023</t>
         </is>
       </c>
-      <c r="V33" s="5" t="inlineStr">
+      <c r="W33" s="5" t="inlineStr">
         <is>
           <t>December 22, 2023</t>
         </is>
       </c>
-      <c r="W33" s="5" t="inlineStr">
+      <c r="X33" s="5" t="inlineStr">
         <is>
           <t>May 20, 2024</t>
         </is>
       </c>
-      <c r="X33" s="5" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Y33" s="5" t="inlineStr"/>
-      <c r="Z33" s="7" t="n"/>
+      <c r="Z33" s="5" t="inlineStr"/>
+      <c r="AA33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="5" t="n">
+        <v>450</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="E34" s="5" t="n">
         <v>125481</v>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>Sto. Rosario Elementary School</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>TUKURAN</t>
         </is>
       </c>
-      <c r="G34" s="5" t="inlineStr">
+      <c r="H34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H34" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J34" s="5" t="inlineStr">
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="L34" s="5" t="n">
         <v>23519080.9</v>
       </c>
-      <c r="L34" s="5" t="n">
+      <c r="M34" s="5" t="n">
         <v>21703822.5</v>
       </c>
-      <c r="M34" s="5" t="inlineStr">
+      <c r="N34" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="6" t="n">
+      <c r="O34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="6" t="n">
         <v>45654</v>
       </c>
-      <c r="P34" s="6" t="n">
+      <c r="Q34" s="6" t="n">
         <v>45722</v>
       </c>
-      <c r="Q34" s="5" t="inlineStr">
+      <c r="R34" s="5" t="inlineStr">
         <is>
           <t>ZDS-24-LMS-01</t>
         </is>
       </c>
-      <c r="R34" s="5" t="inlineStr">
+      <c r="S34" s="5" t="inlineStr">
         <is>
           <t>ZDS-24-LMS-01</t>
         </is>
       </c>
-      <c r="S34" s="6" t="n">
+      <c r="T34" s="6" t="n">
         <v>45243</v>
       </c>
-      <c r="T34" s="6" t="n">
+      <c r="U34" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="U34" s="6" t="n">
+      <c r="V34" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="V34" s="6" t="n">
+      <c r="W34" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="W34" s="6" t="n">
+      <c r="X34" s="6" t="n">
         <v>45434</v>
       </c>
-      <c r="X34" s="5" t="inlineStr">
+      <c r="Y34" s="5" t="inlineStr">
         <is>
           <t>R.R. GANDINGAN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y34" s="5" t="inlineStr"/>
-      <c r="Z34" s="7" t="n"/>
+      <c r="Z34" s="5" t="inlineStr"/>
+      <c r="AA34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="5" t="n">
+        <v>451</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="E35" s="5" t="n">
         <v>125350</v>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>TAPIAN ES</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G35" s="5" t="inlineStr">
+      <c r="H35" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H35" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J35" s="5" t="inlineStr">
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="L35" s="5" t="n">
         <v>22127905.86</v>
       </c>
-      <c r="L35" s="5" t="n">
+      <c r="M35" s="5" t="n">
         <v>20576515</v>
       </c>
-      <c r="M35" s="5" t="inlineStr">
+      <c r="N35" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="6" t="n">
+      <c r="O35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="6" t="n">
         <v>45614</v>
       </c>
-      <c r="P35" s="6" t="n">
+      <c r="Q35" s="6" t="n">
         <v>45611</v>
       </c>
-      <c r="Q35" s="5" t="inlineStr">
+      <c r="R35" s="5" t="inlineStr">
         <is>
           <t>ZDS-24-LMS-02</t>
         </is>
       </c>
-      <c r="R35" s="5" t="inlineStr">
+      <c r="S35" s="5" t="inlineStr">
         <is>
           <t>ZDS-24-LMS-02</t>
         </is>
       </c>
-      <c r="S35" s="6" t="n">
+      <c r="T35" s="6" t="n">
         <v>45243</v>
       </c>
-      <c r="T35" s="6" t="n">
+      <c r="U35" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="U35" s="6" t="n">
+      <c r="V35" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="V35" s="6" t="n">
+      <c r="W35" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="W35" s="6" t="n">
+      <c r="X35" s="6" t="n">
         <v>45434</v>
       </c>
-      <c r="X35" s="5" t="inlineStr">
+      <c r="Y35" s="5" t="inlineStr">
         <is>
           <t>R.R. GANDINGAN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y35" s="5" t="inlineStr"/>
-      <c r="Z35" s="7" t="n"/>
+      <c r="Z35" s="5" t="inlineStr"/>
+      <c r="AA35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="A36" s="5" t="n">
+        <v>452</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="E36" s="5" t="n">
         <v>303858</v>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>Bulawan NHS</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>Payao</t>
         </is>
       </c>
-      <c r="G36" s="5" t="inlineStr">
+      <c r="H36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H36" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J36" s="5" t="inlineStr">
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="L36" s="5" t="n">
         <v>13539348.82</v>
       </c>
-      <c r="L36" s="5" t="n">
+      <c r="M36" s="5" t="n">
         <v>12340386.36</v>
       </c>
-      <c r="M36" s="5" t="inlineStr">
+      <c r="N36" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" s="5" t="inlineStr">
+      <c r="O36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="5" t="inlineStr">
         <is>
           <t>October 23, 2024</t>
         </is>
       </c>
-      <c r="P36" s="5" t="inlineStr">
+      <c r="Q36" s="5" t="inlineStr">
         <is>
           <t>March 19, 2025</t>
         </is>
       </c>
-      <c r="Q36" s="5" t="inlineStr">
+      <c r="R36" s="5" t="inlineStr">
         <is>
           <t>ZSY-2024LMS-01</t>
         </is>
       </c>
-      <c r="R36" s="5" t="inlineStr">
+      <c r="S36" s="5" t="inlineStr">
         <is>
           <t>ZSY-2024LMS-01</t>
         </is>
       </c>
-      <c r="S36" s="5" t="inlineStr">
+      <c r="T36" s="5" t="inlineStr">
         <is>
           <t>November 22, 2023</t>
         </is>
       </c>
-      <c r="T36" s="5" t="inlineStr">
+      <c r="U36" s="5" t="inlineStr">
         <is>
           <t>November 29, 2023</t>
         </is>
       </c>
-      <c r="U36" s="5" t="inlineStr">
+      <c r="V36" s="5" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="V36" s="5" t="inlineStr">
+      <c r="W36" s="5" t="inlineStr">
         <is>
           <t>February 28, 2024</t>
         </is>
       </c>
-      <c r="W36" s="5" t="inlineStr">
+      <c r="X36" s="5" t="inlineStr">
         <is>
           <t>June 26, 2024</t>
         </is>
       </c>
-      <c r="X36" s="5" t="inlineStr">
+      <c r="Y36" s="5" t="inlineStr">
         <is>
           <t>Long Island Builders and Construction</t>
         </is>
       </c>
-      <c r="Y36" s="5" t="inlineStr">
+      <c r="Z36" s="5" t="inlineStr">
         <is>
           <t>With Approved Time Extension</t>
         </is>
       </c>
-      <c r="Z36" s="7" t="n"/>
+      <c r="AA36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="A37" s="5" t="n">
+        <v>453</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Sibugay</t>
         </is>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="E37" s="5" t="n">
         <v>125833</v>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Paruk ES</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>Siay</t>
         </is>
       </c>
-      <c r="G37" s="5" t="inlineStr">
+      <c r="H37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H37" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="L37" s="5" t="n">
         <v>9316708.43</v>
       </c>
-      <c r="L37" s="5" t="n">
+      <c r="M37" s="5" t="n">
         <v>8213612.07</v>
       </c>
-      <c r="M37" s="5" t="inlineStr">
+      <c r="N37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="5" t="inlineStr">
+      <c r="O37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="5" t="inlineStr">
         <is>
           <t>September 24, 2024</t>
         </is>
       </c>
-      <c r="P37" s="5" t="inlineStr">
+      <c r="Q37" s="5" t="inlineStr">
         <is>
           <t>March 19, 2025</t>
         </is>
       </c>
-      <c r="Q37" s="5" t="inlineStr">
+      <c r="R37" s="5" t="inlineStr">
         <is>
           <t>ZSY-2024LMS-02</t>
         </is>
       </c>
-      <c r="R37" s="5" t="inlineStr">
+      <c r="S37" s="5" t="inlineStr">
         <is>
           <t>ZSY-2024LMS-02</t>
         </is>
       </c>
-      <c r="S37" s="5" t="inlineStr">
+      <c r="T37" s="5" t="inlineStr">
         <is>
           <t>November 22, 2023</t>
         </is>
       </c>
-      <c r="T37" s="5" t="inlineStr">
+      <c r="U37" s="5" t="inlineStr">
         <is>
           <t>November 29, 2023</t>
         </is>
       </c>
-      <c r="U37" s="5" t="inlineStr">
+      <c r="V37" s="5" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="V37" s="5" t="inlineStr">
+      <c r="W37" s="5" t="inlineStr">
         <is>
           <t>February 28, 2024</t>
         </is>
       </c>
-      <c r="W37" s="5" t="inlineStr">
+      <c r="X37" s="5" t="inlineStr">
         <is>
           <t>June 26, 2024</t>
         </is>
       </c>
-      <c r="X37" s="5" t="inlineStr">
+      <c r="Y37" s="5" t="inlineStr">
         <is>
           <t>Long Island Builders and Construction</t>
         </is>
       </c>
-      <c r="Y37" s="5" t="inlineStr">
+      <c r="Z37" s="5" t="inlineStr">
         <is>
           <t>With Approved Time Extension due to manhauling of construction materials from barangay road to site area</t>
         </is>
       </c>
-      <c r="Z37" s="7" t="n"/>
+      <c r="AA37" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="Z2:Z37" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA37" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
